--- a/Code/Results/Cases/Case_2_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_54/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.640854536853283</v>
+        <v>1.64085453685297</v>
       </c>
       <c r="C2">
-        <v>0.9060718264817353</v>
+        <v>0.9060718264816785</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2126157661677297</v>
+        <v>0.2126157661677581</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
@@ -430,19 +430,19 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2.748690738001685</v>
+        <v>2.748690738001699</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.5883328530458556</v>
+        <v>0.5883328530458627</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.9004290410465075</v>
+        <v>0.9004290410464719</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.408001361376535</v>
+        <v>1.40800136137662</v>
       </c>
       <c r="C3">
-        <v>0.7773059494129768</v>
+        <v>0.77730594941292</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1837916629912399</v>
+        <v>0.183791662991311</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
@@ -468,19 +468,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.450616353505566</v>
+        <v>2.450616353505609</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.5047902200591281</v>
+        <v>0.5047902200591352</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.7734413273577303</v>
+        <v>0.7734413273577516</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.267998201149595</v>
+        <v>1.267998201149709</v>
       </c>
       <c r="C4">
-        <v>0.7000365997992049</v>
+        <v>0.7000365997992617</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1665641175170833</v>
+        <v>0.166564117517062</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4545941678254053</v>
+        <v>0.4545941678254337</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.697283717760854</v>
+        <v>0.6972837177608469</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,13 +529,13 @@
         <v>1.211577717492901</v>
       </c>
       <c r="C5">
-        <v>0.6689299974914036</v>
+        <v>0.6689299974911478</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1596453297362075</v>
+        <v>0.1596453297362146</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
@@ -544,19 +544,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.200724881935372</v>
+        <v>2.200724881935358</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4343727782536959</v>
+        <v>0.434372778253703</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.6666371127387336</v>
+        <v>0.6666371127387265</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.202244177461438</v>
+        <v>1.202244177461495</v>
       </c>
       <c r="C6">
-        <v>0.6637858979877365</v>
+        <v>0.6637858979877649</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.158502148244601</v>
+        <v>0.1585021482446933</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.188890141676424</v>
+        <v>2.188890141676396</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4310279990631116</v>
+        <v>0.4310279990630974</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.6615698684826938</v>
+        <v>0.6615698684826867</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,7 +602,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.267234879069321</v>
+        <v>1.267234879069377</v>
       </c>
       <c r="C7">
         <v>0.6996156283117045</v>
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1664704179255025</v>
+        <v>0.1664704179255949</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.271374218872424</v>
+        <v>2.271374218872367</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.6968689193779269</v>
+        <v>0.6968689193779483</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.559877322275952</v>
+        <v>1.559877322275668</v>
       </c>
       <c r="C8">
-        <v>0.8612567758235343</v>
+        <v>0.8612567758235627</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2025688895086404</v>
+        <v>0.202568889508548</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
@@ -658,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.644824746427759</v>
+        <v>2.644824746427716</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5592720657731931</v>
+        <v>0.559272065773186</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.8562241951366545</v>
+        <v>0.8562241951366687</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.163241238137857</v>
+        <v>2.163241238137886</v>
       </c>
       <c r="C9">
-        <v>1.196061025548318</v>
+        <v>1.196061025548829</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2779556059927941</v>
+        <v>0.2779556059928439</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
@@ -696,13 +696,13 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3.423267524139845</v>
+        <v>3.423267524139874</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.7760031596830643</v>
+        <v>0.7760031596830714</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.634173020993728</v>
+        <v>2.634173020993842</v>
       </c>
       <c r="C10">
-        <v>1.458766659565072</v>
+        <v>1.458766659565413</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3375515062954122</v>
+        <v>0.3375515062953767</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.9454734133177709</v>
+        <v>0.9454734133177993</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.857057738169374</v>
+        <v>2.857057738169431</v>
       </c>
       <c r="C11">
-        <v>1.583514432537527</v>
+        <v>1.583514432537584</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3659623954313318</v>
+        <v>0.3659623954312679</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
@@ -772,19 +772,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.328781906484494</v>
+        <v>4.328781906484437</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.02577290158834</v>
+        <v>1.025772901588311</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.569070086341483</v>
+        <v>1.569070086341469</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.942972245404121</v>
+        <v>2.942972245404064</v>
       </c>
       <c r="C12">
-        <v>1.631670586594282</v>
+        <v>1.631670586594112</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3769471561710631</v>
+        <v>0.3769471561711129</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
@@ -810,13 +810,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.441513703386619</v>
+        <v>4.441513703386704</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.056741192183097</v>
+        <v>1.056741192183082</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.924396926861277</v>
+        <v>2.924396926861107</v>
       </c>
       <c r="C13">
-        <v>1.621255593724698</v>
+        <v>1.6212555937243</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3745706298248166</v>
+        <v>0.3745706298247171</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.417130408063485</v>
+        <v>4.417130408063457</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.050044899947039</v>
+        <v>1.050044899947054</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.606321739110641</v>
+        <v>1.606321739110612</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,13 +871,13 @@
         <v>2.864093942647401</v>
       </c>
       <c r="C14">
-        <v>1.587456850135595</v>
+        <v>1.587456850135709</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3668613350846499</v>
+        <v>0.3668613350846641</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.028308810294121</v>
+        <v>1.028308810294106</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.827362446674954</v>
+        <v>2.827362446675068</v>
       </c>
       <c r="C15">
-        <v>1.566878903269583</v>
+        <v>1.566878903269014</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3621699098630771</v>
+        <v>0.3621699098630629</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
@@ -924,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.289845129421849</v>
+        <v>4.289845129421906</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.015071101361812</v>
+        <v>1.015071101361841</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.552649899768866</v>
+        <v>1.552649899768909</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.619803000529771</v>
+        <v>2.619803000529657</v>
       </c>
       <c r="C16">
-        <v>1.450732857483445</v>
+        <v>1.450732857482819</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3357241452113868</v>
+        <v>0.3357241452114295</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.9402982823319093</v>
+        <v>0.9402982823318808</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.494865142790218</v>
+        <v>2.494865142790502</v>
       </c>
       <c r="C17">
-        <v>1.380930664082882</v>
+        <v>1.380930664082996</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.3198593181066798</v>
+        <v>0.3198593181067153</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
@@ -1000,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>3.854913292443825</v>
+        <v>3.854913292443882</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.8953142428546954</v>
+        <v>0.8953142428547665</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.369096464820501</v>
+        <v>1.369096464820558</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.423800291807652</v>
+        <v>2.423800291807595</v>
       </c>
       <c r="C18">
-        <v>1.341264341462704</v>
+        <v>1.341264341462931</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3108539726761919</v>
+        <v>0.3108539726761705</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>2.107028586650742</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>3.762221740914356</v>
+        <v>3.762221740914441</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.8697355355742644</v>
+        <v>0.869735535574236</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.32993952800264</v>
+        <v>1.329939528002598</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.399868271924674</v>
+        <v>2.399868271924504</v>
       </c>
       <c r="C19">
-        <v>1.327912294155794</v>
+        <v>1.327912294155112</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3078243913765704</v>
+        <v>0.3078243913765846</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>2.087706772594757</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.731029341550993</v>
+        <v>3.731029341551078</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.8611229287118647</v>
+        <v>0.8611229287118505</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.316758953454723</v>
+        <v>1.316758953454695</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,13 +1099,13 @@
         <v>2.508080805962493</v>
       </c>
       <c r="C20">
-        <v>1.388310247172171</v>
+        <v>1.388310247172512</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3215355077580213</v>
+        <v>0.3215355077580142</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>3.872161708226031</v>
+        <v>3.872161708226002</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.881762947309028</v>
+        <v>2.881762947308573</v>
       </c>
       <c r="C21">
-        <v>1.597358025686674</v>
+        <v>1.59735802568639</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3691192551082096</v>
+        <v>0.3691192551082239</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
@@ -1152,19 +1152,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.361186540274616</v>
+        <v>4.361186540274559</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.034677127182505</v>
+        <v>1.034677127182533</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.58273428605527</v>
+        <v>1.582734286055299</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.134966675370265</v>
+        <v>3.134966675370549</v>
       </c>
       <c r="C22">
-        <v>1.73942613153099</v>
+        <v>1.739426131531502</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.4015600797627812</v>
+        <v>0.4015600797627599</v>
       </c>
       <c r="F22">
         <v>2.667416158031997</v>
@@ -1190,19 +1190,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.693844958686071</v>
+        <v>4.6938449586861</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.1259775938655</v>
+        <v>1.125977593865471</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.72294934399649</v>
+        <v>1.722949343996504</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.998903190672991</v>
+        <v>2.998903190673161</v>
       </c>
       <c r="C23">
-        <v>1.663041462246497</v>
+        <v>1.663041462246156</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1222,13 +1222,13 @@
         <v>0.3841080650490412</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.514964871494783</v>
+        <v>4.514964871494755</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.647563917372707</v>
+        <v>1.647563917372722</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.502103645809484</v>
+        <v>2.502103645809768</v>
       </c>
       <c r="C24">
-        <v>1.384972504637346</v>
+        <v>1.384972504637744</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3207773453410923</v>
+        <v>0.3207773453411349</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>2.170038921572882</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>3.864360202395829</v>
+        <v>3.864360202395858</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.8979199693074378</v>
+        <v>0.8979199693073951</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.373086395115692</v>
+        <v>1.373086395115706</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.995947905376653</v>
+        <v>1.995947905376539</v>
       </c>
       <c r="C25">
-        <v>1.103027559484701</v>
+        <v>1.103027559484303</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2569368276172881</v>
+        <v>0.2569368276173165</v>
       </c>
       <c r="F25">
         <v>1.757113814925063</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.7158652551088949</v>
+        <v>0.7158652551089588</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.094776715023649</v>
+        <v>1.094776715023663</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_54/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.64085453685297</v>
+        <v>1.640854536853283</v>
       </c>
       <c r="C2">
-        <v>0.9060718264816785</v>
+        <v>0.9060718264817353</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2126157661677581</v>
+        <v>0.2126157661677297</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
@@ -430,19 +430,19 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2.748690738001699</v>
+        <v>2.748690738001685</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.5883328530458627</v>
+        <v>0.5883328530458556</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.9004290410464719</v>
+        <v>0.9004290410465075</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.40800136137662</v>
+        <v>1.408001361376535</v>
       </c>
       <c r="C3">
-        <v>0.77730594941292</v>
+        <v>0.7773059494129768</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.183791662991311</v>
+        <v>0.1837916629912399</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
@@ -468,19 +468,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.450616353505609</v>
+        <v>2.450616353505566</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.5047902200591352</v>
+        <v>0.5047902200591281</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.7734413273577516</v>
+        <v>0.7734413273577303</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.267998201149709</v>
+        <v>1.267998201149595</v>
       </c>
       <c r="C4">
-        <v>0.7000365997992617</v>
+        <v>0.7000365997992049</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.166564117517062</v>
+        <v>0.1665641175170833</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4545941678254337</v>
+        <v>0.4545941678254053</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.6972837177608469</v>
+        <v>0.697283717760854</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,13 +529,13 @@
         <v>1.211577717492901</v>
       </c>
       <c r="C5">
-        <v>0.6689299974911478</v>
+        <v>0.6689299974914036</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1596453297362146</v>
+        <v>0.1596453297362075</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
@@ -544,19 +544,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.200724881935358</v>
+        <v>2.200724881935372</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.434372778253703</v>
+        <v>0.4343727782536959</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.6666371127387265</v>
+        <v>0.6666371127387336</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.202244177461495</v>
+        <v>1.202244177461438</v>
       </c>
       <c r="C6">
-        <v>0.6637858979877649</v>
+        <v>0.6637858979877365</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1585021482446933</v>
+        <v>0.158502148244601</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.188890141676396</v>
+        <v>2.188890141676424</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4310279990630974</v>
+        <v>0.4310279990631116</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.6615698684826867</v>
+        <v>0.6615698684826938</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,7 +602,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.267234879069377</v>
+        <v>1.267234879069321</v>
       </c>
       <c r="C7">
         <v>0.6996156283117045</v>
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1664704179255949</v>
+        <v>0.1664704179255025</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.271374218872367</v>
+        <v>2.271374218872424</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.6968689193779483</v>
+        <v>0.6968689193779269</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.559877322275668</v>
+        <v>1.559877322275952</v>
       </c>
       <c r="C8">
-        <v>0.8612567758235627</v>
+        <v>0.8612567758235343</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.202568889508548</v>
+        <v>0.2025688895086404</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
@@ -658,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.644824746427716</v>
+        <v>2.644824746427759</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.559272065773186</v>
+        <v>0.5592720657731931</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.8562241951366687</v>
+        <v>0.8562241951366545</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.163241238137886</v>
+        <v>2.163241238137857</v>
       </c>
       <c r="C9">
-        <v>1.196061025548829</v>
+        <v>1.196061025548318</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2779556059928439</v>
+        <v>0.2779556059927941</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
@@ -696,13 +696,13 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3.423267524139874</v>
+        <v>3.423267524139845</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.7760031596830714</v>
+        <v>0.7760031596830643</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.634173020993842</v>
+        <v>2.634173020993728</v>
       </c>
       <c r="C10">
-        <v>1.458766659565413</v>
+        <v>1.458766659565072</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3375515062953767</v>
+        <v>0.3375515062954122</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.9454734133177993</v>
+        <v>0.9454734133177709</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.857057738169431</v>
+        <v>2.857057738169374</v>
       </c>
       <c r="C11">
-        <v>1.583514432537584</v>
+        <v>1.583514432537527</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3659623954312679</v>
+        <v>0.3659623954313318</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
@@ -772,19 +772,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.328781906484437</v>
+        <v>4.328781906484494</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.025772901588311</v>
+        <v>1.02577290158834</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.569070086341469</v>
+        <v>1.569070086341483</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.942972245404064</v>
+        <v>2.942972245404121</v>
       </c>
       <c r="C12">
-        <v>1.631670586594112</v>
+        <v>1.631670586594282</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3769471561711129</v>
+        <v>0.3769471561710631</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
@@ -810,13 +810,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.441513703386704</v>
+        <v>4.441513703386619</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.056741192183082</v>
+        <v>1.056741192183097</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.924396926861107</v>
+        <v>2.924396926861277</v>
       </c>
       <c r="C13">
-        <v>1.6212555937243</v>
+        <v>1.621255593724698</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3745706298247171</v>
+        <v>0.3745706298248166</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.417130408063457</v>
+        <v>4.417130408063485</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.050044899947054</v>
+        <v>1.050044899947039</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.606321739110612</v>
+        <v>1.606321739110641</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,13 +871,13 @@
         <v>2.864093942647401</v>
       </c>
       <c r="C14">
-        <v>1.587456850135709</v>
+        <v>1.587456850135595</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3668613350846641</v>
+        <v>0.3668613350846499</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.028308810294106</v>
+        <v>1.028308810294121</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.827362446675068</v>
+        <v>2.827362446674954</v>
       </c>
       <c r="C15">
-        <v>1.566878903269014</v>
+        <v>1.566878903269583</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3621699098630629</v>
+        <v>0.3621699098630771</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
@@ -924,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.289845129421906</v>
+        <v>4.289845129421849</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.015071101361841</v>
+        <v>1.015071101361812</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.552649899768909</v>
+        <v>1.552649899768866</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.619803000529657</v>
+        <v>2.619803000529771</v>
       </c>
       <c r="C16">
-        <v>1.450732857482819</v>
+        <v>1.450732857483445</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3357241452114295</v>
+        <v>0.3357241452113868</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.9402982823318808</v>
+        <v>0.9402982823319093</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.494865142790502</v>
+        <v>2.494865142790218</v>
       </c>
       <c r="C17">
-        <v>1.380930664082996</v>
+        <v>1.380930664082882</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.3198593181067153</v>
+        <v>0.3198593181066798</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
@@ -1000,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>3.854913292443882</v>
+        <v>3.854913292443825</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.8953142428547665</v>
+        <v>0.8953142428546954</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.369096464820558</v>
+        <v>1.369096464820501</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.423800291807595</v>
+        <v>2.423800291807652</v>
       </c>
       <c r="C18">
-        <v>1.341264341462931</v>
+        <v>1.341264341462704</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3108539726761705</v>
+        <v>0.3108539726761919</v>
       </c>
       <c r="F18">
-        <v>2.107028586650742</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>3.762221740914441</v>
+        <v>3.762221740914356</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.869735535574236</v>
+        <v>0.8697355355742644</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.329939528002598</v>
+        <v>1.32993952800264</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.399868271924504</v>
+        <v>2.399868271924674</v>
       </c>
       <c r="C19">
-        <v>1.327912294155112</v>
+        <v>1.327912294155794</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3078243913765846</v>
+        <v>0.3078243913765704</v>
       </c>
       <c r="F19">
-        <v>2.087706772594757</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.731029341551078</v>
+        <v>3.731029341550993</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.8611229287118505</v>
+        <v>0.8611229287118647</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.316758953454695</v>
+        <v>1.316758953454723</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,13 +1099,13 @@
         <v>2.508080805962493</v>
       </c>
       <c r="C20">
-        <v>1.388310247172512</v>
+        <v>1.388310247172171</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3215355077580142</v>
+        <v>0.3215355077580213</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>3.872161708226002</v>
+        <v>3.872161708226031</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.881762947308573</v>
+        <v>2.881762947309028</v>
       </c>
       <c r="C21">
-        <v>1.59735802568639</v>
+        <v>1.597358025686674</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3691192551082239</v>
+        <v>0.3691192551082096</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
@@ -1152,19 +1152,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.361186540274559</v>
+        <v>4.361186540274616</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.034677127182533</v>
+        <v>1.034677127182505</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.582734286055299</v>
+        <v>1.58273428605527</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.134966675370549</v>
+        <v>3.134966675370265</v>
       </c>
       <c r="C22">
-        <v>1.739426131531502</v>
+        <v>1.73942613153099</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.4015600797627599</v>
+        <v>0.4015600797627812</v>
       </c>
       <c r="F22">
         <v>2.667416158031997</v>
@@ -1190,19 +1190,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.6938449586861</v>
+        <v>4.693844958686071</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.125977593865471</v>
+        <v>1.1259775938655</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.722949343996504</v>
+        <v>1.72294934399649</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.998903190673161</v>
+        <v>2.998903190672991</v>
       </c>
       <c r="C23">
-        <v>1.663041462246156</v>
+        <v>1.663041462246497</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1222,13 +1222,13 @@
         <v>0.3841080650490412</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758803</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.514964871494755</v>
+        <v>4.514964871494783</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.647563917372722</v>
+        <v>1.647563917372707</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.502103645809768</v>
+        <v>2.502103645809484</v>
       </c>
       <c r="C24">
-        <v>1.384972504637744</v>
+        <v>1.384972504637346</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3207773453411349</v>
+        <v>0.3207773453410923</v>
       </c>
       <c r="F24">
-        <v>2.170038921572882</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>3.864360202395858</v>
+        <v>3.864360202395829</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.8979199693073951</v>
+        <v>0.8979199693074378</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.373086395115706</v>
+        <v>1.373086395115692</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.995947905376539</v>
+        <v>1.995947905376653</v>
       </c>
       <c r="C25">
-        <v>1.103027559484303</v>
+        <v>1.103027559484701</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2569368276173165</v>
+        <v>0.2569368276172881</v>
       </c>
       <c r="F25">
         <v>1.757113814925063</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.7158652551089588</v>
+        <v>0.7158652551088949</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.094776715023663</v>
+        <v>1.094776715023649</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_54/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.640854536853283</v>
+        <v>1.621403426399695</v>
       </c>
       <c r="C2">
-        <v>0.9060718264817353</v>
+        <v>0.8960370494103245</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2126157661677297</v>
+        <v>0.2114677208703952</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007931336744847789</v>
       </c>
       <c r="H2">
-        <v>2.748690738001685</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.76738457616851</v>
       </c>
       <c r="J2">
-        <v>0.5883328530458556</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.5814157274940754</v>
       </c>
       <c r="L2">
-        <v>0.9004290410465075</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.8944183050221923</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.408001361376535</v>
+        <v>1.391702562707707</v>
       </c>
       <c r="C3">
-        <v>0.7773059494129768</v>
+        <v>0.7692507753150437</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1837916629912399</v>
+        <v>0.1826563384923006</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0008029242363352118</v>
       </c>
       <c r="H3">
-        <v>2.450616353505566</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.472412809377403</v>
       </c>
       <c r="J3">
-        <v>0.5047902200591281</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4990626363601294</v>
       </c>
       <c r="L3">
-        <v>0.7734413273577303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.7686295067284235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.267998201149595</v>
+        <v>1.25363045946736</v>
       </c>
       <c r="C4">
-        <v>0.7000365997992049</v>
+        <v>0.6931885647908587</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1665641175170833</v>
+        <v>0.1654296332037362</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0008090556093205407</v>
       </c>
       <c r="H4">
-        <v>2.272344056418305</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.295996907341504</v>
       </c>
       <c r="J4">
-        <v>0.4545941678254053</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4495942815225291</v>
       </c>
       <c r="L4">
-        <v>0.697283717760854</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.6931937895837876</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.211577717492901</v>
+        <v>1.197997857655508</v>
       </c>
       <c r="C5">
-        <v>0.6689299974914036</v>
+        <v>0.6625731707279954</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1596453297362075</v>
+        <v>0.1585096234250614</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.000811587080928472</v>
       </c>
       <c r="H5">
-        <v>2.200724881935372</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.225124864533015</v>
       </c>
       <c r="J5">
-        <v>0.4343727782536959</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.4296695590536501</v>
       </c>
       <c r="L5">
-        <v>0.6666371127387336</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.6628388713485691</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.202244177461438</v>
+        <v>1.188795258412256</v>
       </c>
       <c r="C6">
-        <v>0.6637858979877365</v>
+        <v>0.6575106301091296</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.158502148244601</v>
+        <v>0.1573661494799836</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0008120094909364381</v>
       </c>
       <c r="H6">
-        <v>2.188890141676424</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.213413695934022</v>
       </c>
       <c r="J6">
-        <v>0.4310279990631116</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4263740700685688</v>
       </c>
       <c r="L6">
-        <v>0.6615698684826938</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.657819940067391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.267234879069321</v>
+        <v>1.252877756598934</v>
       </c>
       <c r="C7">
-        <v>0.6996156283117045</v>
+        <v>0.6927742190886192</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1664704179255025</v>
+        <v>0.1653359232389846</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0008090896129914513</v>
       </c>
       <c r="H7">
-        <v>2.271374218872424</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.295037180280772</v>
       </c>
       <c r="J7">
-        <v>0.4543205610270533</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4493246741979888</v>
       </c>
       <c r="L7">
-        <v>0.6968689193779269</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.6927829337429614</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.559877322275952</v>
+        <v>1.54151540913773</v>
       </c>
       <c r="C8">
-        <v>0.8612567758235343</v>
+        <v>0.8519071958355369</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2025688895086404</v>
+        <v>0.2014268005628423</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007964863005058429</v>
       </c>
       <c r="H8">
-        <v>2.644824746427759</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.664600308620805</v>
       </c>
       <c r="J8">
-        <v>0.5592720657731931</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.552766169769825</v>
       </c>
       <c r="L8">
-        <v>0.8562241951366545</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0.8506305114507455</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.163241238137857</v>
+        <v>2.13687770222009</v>
       </c>
       <c r="C9">
-        <v>1.196061025548318</v>
+        <v>1.181651952036475</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2779556059927941</v>
+        <v>0.2767328275857395</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.000772583122098444</v>
       </c>
       <c r="H9">
-        <v>3.423267524139845</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.434880497792193</v>
       </c>
       <c r="J9">
-        <v>0.7760031596830643</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.766471648309583</v>
       </c>
       <c r="L9">
-        <v>1.186604325369984</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1.177881587144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.634173020993728</v>
+        <v>2.601645659630549</v>
       </c>
       <c r="C10">
-        <v>1.458766659565072</v>
+        <v>1.440425763612041</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3375515062954122</v>
+        <v>0.3362105741628625</v>
       </c>
       <c r="F10">
         <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007552910724084341</v>
       </c>
       <c r="H10">
-        <v>4.036897076213677</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>4.041920950024263</v>
       </c>
       <c r="J10">
-        <v>0.9454734133177709</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.9336052076883163</v>
       </c>
       <c r="L10">
-        <v>1.445932094686398</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1.43470184434031</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.857057738169374</v>
+        <v>2.821606539344259</v>
       </c>
       <c r="C11">
-        <v>1.583514432537527</v>
+        <v>1.563300146582549</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3659623954313318</v>
+        <v>0.3645490989003548</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007474220876014209</v>
       </c>
       <c r="H11">
-        <v>4.328781906484494</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4.330602101144166</v>
       </c>
       <c r="J11">
-        <v>1.02577290158834</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.012794869890712</v>
       </c>
       <c r="L11">
-        <v>1.569070086341483</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1.556622720098531</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.942972245404121</v>
+        <v>2.906390277672131</v>
       </c>
       <c r="C12">
-        <v>1.631670586594282</v>
+        <v>1.610730535379673</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3769471561710631</v>
+        <v>0.3755031171250565</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007444357677388602</v>
       </c>
       <c r="H12">
-        <v>4.441513703386619</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4.442082627834679</v>
       </c>
       <c r="J12">
-        <v>1.056741192183097</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.043333738866352</v>
       </c>
       <c r="L12">
-        <v>1.616601396308596</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1.603678705789022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.924396926861277</v>
+        <v>2.888059657064559</v>
       </c>
       <c r="C13">
-        <v>1.621255593724698</v>
+        <v>1.600472653820248</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3745706298248166</v>
+        <v>0.3731333728315107</v>
       </c>
       <c r="F13">
         <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007450793235310014</v>
       </c>
       <c r="H13">
-        <v>4.417130408063485</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4.41797066766145</v>
       </c>
       <c r="J13">
-        <v>1.050044899947039</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.036730382447686</v>
       </c>
       <c r="L13">
-        <v>1.606321739110641</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1.593502124271311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.864093942647401</v>
+        <v>2.82855022922854</v>
       </c>
       <c r="C14">
-        <v>1.587456850135595</v>
+        <v>1.567183210302971</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3668613350846499</v>
+        <v>0.365445580740321</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007471765704396385</v>
       </c>
       <c r="H14">
-        <v>4.338009954549818</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>4.339728025936523</v>
       </c>
       <c r="J14">
-        <v>1.028308810294121</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.015295649294814</v>
       </c>
       <c r="L14">
-        <v>1.572961433940108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1.560475274519703</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.827362446674954</v>
+        <v>2.792301524387028</v>
       </c>
       <c r="C15">
-        <v>1.566878903269583</v>
+        <v>1.546914953808709</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3621699098630771</v>
+        <v>0.3607668687798053</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007484601474757415</v>
       </c>
       <c r="H15">
-        <v>4.289845129421849</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4.292095637636294</v>
       </c>
       <c r="J15">
-        <v>1.015071101361812</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.002241255779367</v>
       </c>
       <c r="L15">
-        <v>1.552649899768866</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1.540365995331328</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.619803000529771</v>
+        <v>2.587463799239345</v>
       </c>
       <c r="C16">
-        <v>1.450732857483445</v>
+        <v>1.432512352568949</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3357241452113868</v>
+        <v>0.3343875150199338</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007558047753346351</v>
       </c>
       <c r="H16">
-        <v>4.01810823905376</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>4.023336653144696</v>
       </c>
       <c r="J16">
-        <v>0.9402982823319093</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.9285014700994907</v>
       </c>
       <c r="L16">
-        <v>1.438001639725641</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1.426849118039399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.494865142790218</v>
+        <v>2.464160877401525</v>
       </c>
       <c r="C17">
-        <v>1.380930664082882</v>
+        <v>1.363755330139838</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.3198593181066798</v>
+        <v>0.3185582430031957</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.00076030573713168</v>
       </c>
       <c r="H17">
-        <v>3.854913292443825</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.861910318490033</v>
       </c>
       <c r="J17">
-        <v>0.8953142428546954</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.8841376185943659</v>
       </c>
       <c r="L17">
-        <v>1.369096464820501</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1.358616244346649</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.423800291807652</v>
+        <v>2.394025571376005</v>
       </c>
       <c r="C18">
-        <v>1.341264341462704</v>
+        <v>1.324682481608875</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3108539726761919</v>
+        <v>0.3095716443457448</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007628947345925047</v>
       </c>
       <c r="H18">
-        <v>3.762221740914356</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.770217218235359</v>
       </c>
       <c r="J18">
-        <v>0.8697355355742644</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.8589113913244262</v>
       </c>
       <c r="L18">
-        <v>1.32993952800264</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1.319839051889758</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.399868271924674</v>
+        <v>2.370406588929086</v>
       </c>
       <c r="C19">
-        <v>1.327912294155794</v>
+        <v>1.311530166420084</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3078243913765704</v>
+        <v>0.3065481351881516</v>
       </c>
       <c r="F19">
         <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.000763771522248451</v>
       </c>
       <c r="H19">
-        <v>3.731029341550993</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.739359873081412</v>
       </c>
       <c r="J19">
-        <v>0.8611229287118647</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.8504174651646821</v>
       </c>
       <c r="L19">
-        <v>1.316758953454723</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1.306785950677224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.508080805962493</v>
+        <v>2.477203660483838</v>
       </c>
       <c r="C20">
-        <v>1.388310247172171</v>
+        <v>1.37102447491776</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3215355077580213</v>
+        <v>0.3202308283076505</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007598266260766799</v>
       </c>
       <c r="H20">
-        <v>3.872161708226031</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.87897246391725</v>
       </c>
       <c r="J20">
-        <v>0.9000716828088997</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.8888294925390312</v>
       </c>
       <c r="L20">
-        <v>1.376381268553985</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1.365830221512994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.881762947309028</v>
+        <v>2.845986845372408</v>
       </c>
       <c r="C21">
-        <v>1.597358025686674</v>
+        <v>1.576935274206846</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3691192551082096</v>
+        <v>0.367697281759618</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007465607887986447</v>
       </c>
       <c r="H21">
-        <v>4.361186540274616</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4.362647888878143</v>
       </c>
       <c r="J21">
-        <v>1.034677127182505</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.021575721197806</v>
       </c>
       <c r="L21">
-        <v>1.58273428605527</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1.570150606107944</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.134966675370265</v>
+        <v>3.09584722184286</v>
       </c>
       <c r="C22">
-        <v>1.73942613153099</v>
+        <v>1.716855122329662</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.4015600797627812</v>
+        <v>0.400041527675377</v>
       </c>
       <c r="F22">
         <v>2.667416158031997</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007378492038329277</v>
       </c>
       <c r="H22">
-        <v>4.693844958686071</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.691582504413873</v>
       </c>
       <c r="J22">
-        <v>1.1259775938655</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.111606127605867</v>
       </c>
       <c r="L22">
-        <v>1.72294934399649</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1.708950825235036</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.998903190672991</v>
+        <v>2.961583636875218</v>
       </c>
       <c r="C23">
-        <v>1.663041462246497</v>
+        <v>1.641627652460159</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.3841080650490412</v>
+        <v>0.3826431522252278</v>
       </c>
       <c r="F23">
         <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007425048631713986</v>
       </c>
       <c r="H23">
-        <v>4.514964871494783</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.51471407543383</v>
       </c>
       <c r="J23">
-        <v>1.076906397087456</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.063218780305746</v>
       </c>
       <c r="L23">
-        <v>1.647563917372707</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1.634329812016816</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.502103645809484</v>
+        <v>2.47130469136431</v>
       </c>
       <c r="C24">
-        <v>1.384972504637346</v>
+        <v>1.367736684322722</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3207773453410923</v>
+        <v>0.3194743006466183</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007600432275707278</v>
       </c>
       <c r="H24">
-        <v>3.864360202395829</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.871255227455833</v>
       </c>
       <c r="J24">
-        <v>0.8979199693074378</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.8867074339481178</v>
       </c>
       <c r="L24">
-        <v>1.373086395115692</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1.362567389609339</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.995947905376653</v>
+        <v>1.971782618752059</v>
       </c>
       <c r="C25">
-        <v>1.103027559484701</v>
+        <v>1.090014044070017</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2569368276172881</v>
+        <v>0.2557445966331358</v>
       </c>
       <c r="F25">
         <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007789839852854338</v>
       </c>
       <c r="H25">
-        <v>3.206453641350109</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.220356621799908</v>
       </c>
       <c r="J25">
-        <v>0.7158652551088949</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.7071659430239308</v>
       </c>
       <c r="L25">
-        <v>1.094776715023649</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1.086928309740436</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_54/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.621403426399695</v>
+        <v>1.725408345797689</v>
       </c>
       <c r="C2">
-        <v>0.8960370494103245</v>
+        <v>0.3491718453134354</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2114677208703952</v>
+        <v>0.2438608809487448</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0007931336744847789</v>
+        <v>0.0007956469542990923</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.76738457616851</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5814157274940754</v>
+        <v>0.4575669114326004</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8944183050221923</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.803671581359346</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>2.564038692963138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.391702562707707</v>
+        <v>1.485212540108535</v>
       </c>
       <c r="C3">
-        <v>0.7692507753150437</v>
+        <v>0.30098762351804</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1826563384923006</v>
+        <v>0.2110604385442798</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0008029242363352118</v>
+        <v>0.0008042975226470418</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.472412809377403</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4990626363601294</v>
+        <v>0.3934904190832427</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7686295067284235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.6913990894312363</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>2.292064301918231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.25363045946736</v>
+        <v>1.340305036544578</v>
       </c>
       <c r="C4">
-        <v>0.6931885647908587</v>
+        <v>0.271889391738668</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1654296332037362</v>
+        <v>0.1914240245992147</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0008090556093205407</v>
+        <v>0.0008097261036791194</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.295996907341504</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4495942815225291</v>
+        <v>0.3548220118728196</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6931937895837876</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.6238586528021202</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>2.129883433338961</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.197997857655508</v>
+        <v>1.281805392359075</v>
       </c>
       <c r="C5">
-        <v>0.6625731707279954</v>
+        <v>0.2601324800697853</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1585096234250614</v>
+        <v>0.1835313396941061</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.000811587080928472</v>
+        <v>0.0008119698104312256</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.225124864533015</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4296695590536501</v>
+        <v>0.3392077688700539</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6628388713485691</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.5966353777463453</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>2.064852630558761</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.188795258412256</v>
+        <v>1.272122239699343</v>
       </c>
       <c r="C6">
-        <v>0.6575106301091296</v>
+        <v>0.2581857536460461</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1573661494799836</v>
+        <v>0.1822268948547645</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.0008120094909364381</v>
+        <v>0.0008123443367302822</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.213413695934022</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4263740700685688</v>
+        <v>0.3366229797871583</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.657819940067391</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.5921316971117392</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>2.054114129730678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.252877756598934</v>
+        <v>1.339513977626382</v>
       </c>
       <c r="C7">
-        <v>0.6927742190886192</v>
+        <v>0.2717304525795043</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1653359232389846</v>
+        <v>0.1913171600645427</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
-        <v>0.0008090896129914513</v>
+        <v>0.0008097562329252052</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.295037180280772</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4493246741979888</v>
+        <v>0.3546108847809393</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6927829337429614</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.6234903592222309</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>2.129002306206687</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.54151540913773</v>
+        <v>1.641993974901823</v>
       </c>
       <c r="C8">
-        <v>0.8519071958355369</v>
+        <v>0.3324431026429124</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2014268005628423</v>
+        <v>0.2324359510820457</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0007964863005058429</v>
+        <v>0.0007986066733938647</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.664600308620805</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.552766169769825</v>
+        <v>0.4353166503240544</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8506305114507455</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.7646382095955815</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>2.469167820707213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.13687770222009</v>
+        <v>2.260459360339951</v>
       </c>
       <c r="C9">
-        <v>1.181651952036475</v>
+        <v>0.4564738077153834</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2767328275857395</v>
+        <v>0.3179386333731458</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>0.000772583122098444</v>
+        <v>0.0007775669534546288</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.434880497792193</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.766471648309583</v>
+        <v>0.6002736221772622</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.177881587144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1.055092030898926</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>3.182041437945401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.601645659630549</v>
+        <v>2.738075464134397</v>
       </c>
       <c r="C10">
-        <v>1.440425763612041</v>
+        <v>0.5524175352192913</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3362105741628625</v>
+        <v>0.3851271447094433</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
-        <v>0.0007552910724084341</v>
+        <v>0.000762445957715896</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4.041920950024263</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.9336052076883163</v>
+        <v>0.7276922333683018</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.43470184434031</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1.280966478079392</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>3.745814199915998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.821606539344259</v>
+        <v>2.962474200538963</v>
       </c>
       <c r="C11">
-        <v>1.563300146582549</v>
+        <v>0.5975915971579866</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3645490989003548</v>
+        <v>0.4170156167182597</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007474220876014209</v>
+        <v>0.0007555965262585538</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4.330602101144166</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.012794869890712</v>
+        <v>0.7875815949460403</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.556622720098531</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.387538180469861</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>4.014174463429981</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.906390277672131</v>
+        <v>3.048678596177638</v>
       </c>
       <c r="C12">
-        <v>1.610730535379673</v>
+        <v>0.6149657475500874</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3755031171250565</v>
+        <v>0.4293185382609011</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0007444357677388602</v>
+        <v>0.000753002732660087</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>4.442082627834679</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.043333738866352</v>
+        <v>0.8105938216386193</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.603678705789022</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.428553318468346</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>4.117821522034745</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.888059657064559</v>
+        <v>3.030054651885223</v>
       </c>
       <c r="C13">
-        <v>1.600472653820248</v>
+        <v>0.6112111579110433</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3731333728315107</v>
+        <v>0.4266581132206539</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>0.0007450793235310014</v>
+        <v>0.0007535614302572035</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>4.41797066766145</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.036730382447686</v>
+        <v>0.8056219003952307</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.593502124271311</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.419688744025706</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>4.09540368930422</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.82855022922854</v>
+        <v>2.969540361272038</v>
       </c>
       <c r="C14">
-        <v>1.567183210302971</v>
+        <v>0.5990153107498486</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.365445580740321</v>
+        <v>0.4180229933637136</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0007471765704396385</v>
+        <v>0.0007553831614302023</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>4.339728025936523</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.015295649294814</v>
+        <v>0.7894677864384363</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.560475274519703</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.390898628594343</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>4.022659014895936</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.792301524387028</v>
+        <v>2.932640339579677</v>
       </c>
       <c r="C15">
-        <v>1.546914953808709</v>
+        <v>0.5915814232524781</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3607668687798053</v>
+        <v>0.4127645553451629</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.0007484601474757415</v>
+        <v>0.0007564988786330495</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.292095637636294</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.002241255779367</v>
+        <v>0.7796181771915798</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.540365995331328</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1.373353186395718</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>3.978374646821408</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.587463799239345</v>
+        <v>2.723570682018419</v>
       </c>
       <c r="C16">
-        <v>1.432512352568949</v>
+        <v>0.5494999834637611</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3343875150199338</v>
+        <v>0.3830728365859386</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.0007558047753346351</v>
+        <v>0.000762893821918631</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4.023336653144696</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.9285014700994907</v>
+        <v>0.7238217057895682</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.426849118039399</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.274087603218817</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>3.728541397324193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.464160877401525</v>
+        <v>2.597274783877992</v>
       </c>
       <c r="C17">
-        <v>1.363755330139838</v>
+        <v>0.5241076202140391</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.3185582430031957</v>
+        <v>0.3652216258891627</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.00076030573713168</v>
+        <v>0.0007668215535442352</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.861910318490033</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8841376185943659</v>
+        <v>0.6901231401580574</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.358616244346649</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.214242420486514</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>3.578532822831534</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.394025571376005</v>
+        <v>2.52528977631772</v>
       </c>
       <c r="C18">
-        <v>1.324682481608875</v>
+        <v>0.5096432150529608</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3095716443457448</v>
+        <v>0.3550761774682982</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>2.107028586650742</v>
       </c>
       <c r="G18">
-        <v>0.0007628947345925047</v>
+        <v>0.0007690837178491447</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.770217218235359</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8589113913244262</v>
+        <v>0.6709180424241907</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.319839051889758</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.180173161723701</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>3.493350312050211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.370406588929086</v>
+        <v>2.501024016286578</v>
       </c>
       <c r="C19">
-        <v>1.311530166420084</v>
+        <v>0.504768631284378</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3065481351881516</v>
+        <v>0.3516610374145515</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>2.087706772594757</v>
       </c>
       <c r="G19">
-        <v>0.000763771522248451</v>
+        <v>0.0007698502887180019</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3.739359873081412</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.8504174651646821</v>
+        <v>0.6644444197709376</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.306785950677224</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.168695311545321</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>3.464688827387363</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.477203660483838</v>
+        <v>2.610649815187742</v>
       </c>
       <c r="C20">
-        <v>1.37102447491776</v>
+        <v>0.5267958058267368</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3202308283076505</v>
+        <v>0.3671090314525998</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0007598266260766799</v>
+        <v>0.0007664031543048733</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.87897246391725</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8888294925390312</v>
+        <v>0.6936916660504835</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.365830221512994</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.220575862560779</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>3.594385681672037</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.845986845372408</v>
+        <v>2.987279717690171</v>
       </c>
       <c r="C21">
-        <v>1.576935274206846</v>
+        <v>0.6025898395779734</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.367697281759618</v>
+        <v>0.4205528392609423</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0007465607887986447</v>
+        <v>0.0007548481138926019</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>4.362647888878143</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.021575721197806</v>
+        <v>0.7942030969267364</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.570150606107944</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.39933614537199</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>4.043968189014095</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.09584722184286</v>
+        <v>3.240714960870889</v>
       </c>
       <c r="C22">
-        <v>1.716855122329662</v>
+        <v>0.6537143942974524</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.400041527675377</v>
+        <v>0.4568289890308463</v>
       </c>
       <c r="F22">
         <v>2.667416158031997</v>
       </c>
       <c r="G22">
-        <v>0.0007378492038329277</v>
+        <v>0.0007472933804268944</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>4.691582504413873</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.111606127605867</v>
+        <v>0.8618697181307553</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.708950825235036</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.520070244119822</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>4.349781719852757</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.961583636875218</v>
+        <v>3.10470880680316</v>
       </c>
       <c r="C23">
-        <v>1.641627652460159</v>
+        <v>0.626264886729416</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.3826431522252278</v>
+        <v>0.4373305488935202</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.0007425048631713986</v>
+        <v>0.0007513273310407793</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>4.51471407543383</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.063218780305746</v>
+        <v>0.8255527829070388</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.634329812016816</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.455234027654384</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>4.185349575011287</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.47130469136431</v>
+        <v>2.604601034334109</v>
       </c>
       <c r="C24">
-        <v>1.367736684322722</v>
+        <v>0.5255800632303078</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3194743006466183</v>
+        <v>0.3662553722814366</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>2.170038921572882</v>
       </c>
       <c r="G24">
-        <v>0.0007600432275707278</v>
+        <v>0.0007665922996947046</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.871255227455833</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.8867074339481178</v>
+        <v>0.6920778143107427</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.362567389609339</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.217711473194939</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>3.587215327423507</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.971782618752059</v>
+        <v>2.089695795200612</v>
       </c>
       <c r="C25">
-        <v>1.090014044070017</v>
+        <v>0.4222184175423251</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2557445966331358</v>
+        <v>0.2941533051638103</v>
       </c>
       <c r="F25">
         <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>0.0007789839852854338</v>
+        <v>0.0007831863417524509</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.220356621799908</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7071659430239308</v>
+        <v>0.5547278009971208</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.086928309740436</v>
+        <v>0.9746590828647044</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>2.983130165324468</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_54/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.725408345797689</v>
+        <v>0.9447472360596691</v>
       </c>
       <c r="C2">
-        <v>0.3491718453134354</v>
+        <v>0.1755874697940669</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2438608809487448</v>
+        <v>0.02815766069548964</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0007956469542990923</v>
+        <v>0.0008636848135472063</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.264524461603855</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4575669114326004</v>
+        <v>1.068337953688427</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2932175757866986</v>
       </c>
       <c r="M2">
-        <v>0.803671581359346</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.564038692963138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.485212540108535</v>
+        <v>0.8298383552182997</v>
       </c>
       <c r="C3">
-        <v>0.30098762351804</v>
+        <v>0.1518941840206764</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2110604385442798</v>
+        <v>0.02586351245001772</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0008042975226470418</v>
+        <v>0.0008713568759322695</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.016854392704673</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3934904190832427</v>
+        <v>0.9341192688970068</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2605362083307909</v>
       </c>
       <c r="M3">
-        <v>0.6913990894312363</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.292064301918231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.340305036544578</v>
+        <v>0.7609293598463296</v>
       </c>
       <c r="C4">
-        <v>0.271889391738668</v>
+        <v>0.1375852446515893</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1914240245992147</v>
+        <v>0.02449747696507387</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0008097261036791194</v>
+        <v>0.0008761926743866516</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.867521912530989</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3548220118728196</v>
+        <v>0.8534519664322033</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2409010475303859</v>
       </c>
       <c r="M4">
-        <v>0.6238586528021202</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.129883433338961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.281805392359075</v>
+        <v>0.7332210578130116</v>
       </c>
       <c r="C5">
-        <v>0.2601324800697853</v>
+        <v>0.1318059007753618</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1835313396941061</v>
+        <v>0.02395076484481429</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0008119698104312256</v>
+        <v>0.000878196079357993</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.807274881573633</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3392077688700539</v>
+        <v>0.8209701325137928</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2329970890571644</v>
       </c>
       <c r="M5">
-        <v>0.5966353777463453</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.064852630558761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.272122239699343</v>
+        <v>0.7286414827803469</v>
       </c>
       <c r="C6">
-        <v>0.2581857536460461</v>
+        <v>0.1308491325852117</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1822268948547645</v>
+        <v>0.02386056432251316</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.0008123443367302822</v>
+        <v>0.0008785307596764327</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.797305310049495</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3366229797871583</v>
+        <v>0.8155988253869566</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2316902291118197</v>
       </c>
       <c r="M6">
-        <v>0.5921316971117392</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.054114129730678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.339513977626382</v>
+        <v>0.7605542190558765</v>
       </c>
       <c r="C7">
-        <v>0.2717304525795043</v>
+        <v>0.1375071038259392</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1913171600645427</v>
+        <v>0.02449006444283164</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.0008097562329252052</v>
+        <v>0.0008762195585352295</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.86670704493406</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3546108847809393</v>
+        <v>0.8530123832528602</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2407940709473309</v>
       </c>
       <c r="M7">
-        <v>0.6234903592222309</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.129002306206687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.641993974901823</v>
+        <v>0.9047593231146607</v>
       </c>
       <c r="C8">
-        <v>0.3324431026429124</v>
+        <v>0.1673631880395305</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2324359510820457</v>
+        <v>0.02735733178669975</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0007986066733938647</v>
+        <v>0.000866304993638647</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.178508729468888</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4353166503240544</v>
+        <v>1.021667561575782</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2818526664844541</v>
       </c>
       <c r="M8">
-        <v>0.7646382095955815</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.469167820707213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.260459360339951</v>
+        <v>1.202649328782087</v>
       </c>
       <c r="C9">
-        <v>0.4564738077153834</v>
+        <v>0.2282238263797893</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3179386333731458</v>
+        <v>0.03335500340286401</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.0007775669534546288</v>
+        <v>0.0008477905212097686</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.815687081713619</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6002736221772622</v>
+        <v>1.368608495342301</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3663334040178228</v>
       </c>
       <c r="M9">
-        <v>1.055092030898926</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.182041437945401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.738075464134397</v>
+        <v>1.433897047852611</v>
       </c>
       <c r="C10">
-        <v>0.5524175352192913</v>
+        <v>0.27499747208131</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3851271447094433</v>
+        <v>0.03804731314188814</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.000762445957715896</v>
+        <v>0.0008346541027441923</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>4.305678532054941</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.7276922333683018</v>
+        <v>1.637075247666388</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.4316574270161766</v>
       </c>
       <c r="M10">
-        <v>1.280966478079392</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.745814199915998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.962474200538963</v>
+        <v>1.542596740372687</v>
       </c>
       <c r="C11">
-        <v>0.5975915971579866</v>
+        <v>0.2968887322474814</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4170156167182597</v>
+        <v>0.04025842539304136</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007555965262585538</v>
+        <v>0.0008287542621587818</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4.53488335930686</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.7875815949460403</v>
+        <v>1.763093084580191</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.4622942007417663</v>
       </c>
       <c r="M11">
-        <v>1.387538180469861</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.014174463429981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.048678596177638</v>
+        <v>1.584339095963969</v>
       </c>
       <c r="C12">
-        <v>0.6149657475500874</v>
+        <v>0.3052823773240902</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.4293185382609011</v>
+        <v>0.04110807403458239</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.000753002732660087</v>
+        <v>0.0008265287347266074</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4.62272931777278</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.8105938216386193</v>
+        <v>1.811461389873841</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.4740479349206623</v>
       </c>
       <c r="M12">
-        <v>1.428553318468346</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.117821522034745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.030054651885223</v>
+        <v>1.575322016057925</v>
       </c>
       <c r="C13">
-        <v>0.6112111579110433</v>
+        <v>0.3034697645028359</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4266581132206539</v>
+        <v>0.04092451483353798</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.0007535614302572035</v>
+        <v>0.0008270076984402408</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4.60376089583437</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.8056219003952307</v>
+        <v>1.801014058855088</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.4715094446624732</v>
       </c>
       <c r="M13">
-        <v>1.419688744025706</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.09540368930422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.969540361272038</v>
+        <v>1.546018812056303</v>
       </c>
       <c r="C14">
-        <v>0.5990153107498486</v>
+        <v>0.2975771035693811</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.4180229933637136</v>
+        <v>0.0403280708024667</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0007553831614302023</v>
+        <v>0.0008285710082339508</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>4.54208854839311</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.7894677864384363</v>
+        <v>1.76705883948074</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.4632580139075628</v>
       </c>
       <c r="M14">
-        <v>1.390898628594343</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.022659014895936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.932640339579677</v>
+        <v>1.528147727086008</v>
       </c>
       <c r="C15">
-        <v>0.5915814232524781</v>
+        <v>0.2939817070528647</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4127645553451629</v>
+        <v>0.03996438207949637</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.0007564988786330495</v>
+        <v>0.000829529629304865</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4.504453899998595</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7796181771915798</v>
+        <v>1.746347500309383</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.4582242320308723</v>
       </c>
       <c r="M15">
-        <v>1.373353186395718</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.978374646821408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.723570682018419</v>
+        <v>1.426870089475244</v>
       </c>
       <c r="C16">
-        <v>0.5494999834637611</v>
+        <v>0.273580470587433</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3830728365859386</v>
+        <v>0.03790446341882614</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.000762893821918631</v>
+        <v>0.0008350410082740531</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>4.290838310689111</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7238217057895682</v>
+        <v>1.628925311915964</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.4296754127871196</v>
       </c>
       <c r="M16">
-        <v>1.274087603218817</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.728541397324193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.597274783877992</v>
+        <v>1.365688442223899</v>
       </c>
       <c r="C17">
-        <v>0.5241076202140391</v>
+        <v>0.2612327029611947</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.3652216258891627</v>
+        <v>0.03666128528062096</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0007668215535442352</v>
+        <v>0.0008384399571446191</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>4.161504726862006</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.6901231401580574</v>
+        <v>1.557946907648727</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.4124108455243345</v>
       </c>
       <c r="M17">
-        <v>1.214242420486514</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.578532822831534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.52528977631772</v>
+        <v>1.330823111127984</v>
       </c>
       <c r="C18">
-        <v>0.5096432150529608</v>
+        <v>0.2541873146847422</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3550761774682982</v>
+        <v>0.03595335948448231</v>
       </c>
       <c r="F18">
-        <v>2.107028586650742</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0007690837178491447</v>
+        <v>0.0008404022473720296</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>4.087699407635938</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6709180424241907</v>
+        <v>1.517482349210013</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.4025660512190399</v>
       </c>
       <c r="M18">
-        <v>1.180173161723701</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.493350312050211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.501024016286578</v>
+        <v>1.31907190453245</v>
       </c>
       <c r="C19">
-        <v>0.504768631284378</v>
+        <v>0.2518111628179724</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3516610374145515</v>
+        <v>0.03571485196317958</v>
       </c>
       <c r="F19">
-        <v>2.087706772594757</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.0007698502887180019</v>
+        <v>0.0008410679659441668</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>4.062806346770543</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6644444197709376</v>
+        <v>1.503841106011038</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3992468593877874</v>
       </c>
       <c r="M19">
-        <v>1.168695311545321</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.464688827387363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.610649815187742</v>
+        <v>1.372167200640376</v>
       </c>
       <c r="C20">
-        <v>0.5267958058267368</v>
+        <v>0.2625411661568364</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3671090314525998</v>
+        <v>0.03679287786141394</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0007664031543048733</v>
+        <v>0.0008380773931328127</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>4.175211077804335</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.6936916660504835</v>
+        <v>1.565464778045964</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.4142397203371218</v>
       </c>
       <c r="M20">
-        <v>1.220575862560779</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.594385681672037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.987279717690171</v>
+        <v>1.554609474290686</v>
       </c>
       <c r="C21">
-        <v>0.6025898395779734</v>
+        <v>0.2993049666835077</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.4205528392609423</v>
+        <v>0.04050291430839437</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0007548481138926019</v>
+        <v>0.0008281116121235714</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4.560173453437756</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.7942030969267364</v>
+        <v>1.777013961720854</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.4656773569272303</v>
       </c>
       <c r="M21">
-        <v>1.39933614537199</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.043968189014095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.240714960870889</v>
+        <v>1.677269931912264</v>
       </c>
       <c r="C22">
-        <v>0.6537143942974524</v>
+        <v>0.3239465695305057</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.4568289890308463</v>
+        <v>0.04300034879318915</v>
       </c>
       <c r="F22">
         <v>2.667416158031997</v>
       </c>
       <c r="G22">
-        <v>0.0007472933804268944</v>
+        <v>0.0008216473354005953</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.817974396714988</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.8618697181307553</v>
+        <v>1.919100370727421</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.5001932562987719</v>
       </c>
       <c r="M22">
-        <v>1.520070244119822</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.349781719852757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.10470880680316</v>
+        <v>1.611462746430675</v>
       </c>
       <c r="C23">
-        <v>0.626264886729416</v>
+        <v>0.3107329755099784</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.4373305488935202</v>
+        <v>0.04166028458801208</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>0.0007513273310407793</v>
+        <v>0.0008250937992669047</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.679761215460957</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.8255527829070388</v>
+        <v>1.84288384435493</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.4816820659254404</v>
       </c>
       <c r="M23">
-        <v>1.455234027654384</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.185349575011287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.604601034334109</v>
+        <v>1.369237197723919</v>
       </c>
       <c r="C24">
-        <v>0.5255800632303078</v>
+        <v>0.261949444439324</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3662553722814366</v>
+        <v>0.03673336379350189</v>
       </c>
       <c r="F24">
-        <v>2.170038921572882</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.0007665922996947046</v>
+        <v>0.0008382412826413853</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>4.169012733246348</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6920778143107427</v>
+        <v>1.562064890541279</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.4134126357226933</v>
       </c>
       <c r="M24">
-        <v>1.217711473194939</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.587215327423507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.089695795200612</v>
+        <v>1.120137124046238</v>
       </c>
       <c r="C25">
-        <v>0.4222184175423251</v>
+        <v>0.2114489373835653</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2941533051638103</v>
+        <v>0.03168676175809892</v>
       </c>
       <c r="F25">
         <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>0.0007831863417524509</v>
+        <v>0.0008527095342889766</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.639957576609319</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5547278009971208</v>
+        <v>1.272659322586179</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3429731815582073</v>
       </c>
       <c r="M25">
-        <v>0.9746590828647044</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.983130165324468</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_54/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9447472360596691</v>
+        <v>0.9351974020079297</v>
       </c>
       <c r="C2">
-        <v>0.1755874697940669</v>
+        <v>0.06415970883649891</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.02815766069548964</v>
+        <v>0.04764472388581886</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.0008636848135472063</v>
+        <v>0.002603767831384336</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>3.264524461603855</v>
+        <v>2.920195067636683</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.068337953688427</v>
+        <v>0.8281819962446946</v>
       </c>
       <c r="L2">
-        <v>0.2932175757866986</v>
+        <v>0.2641690103052809</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8298383552182997</v>
+        <v>0.9152238243558486</v>
       </c>
       <c r="C3">
-        <v>0.1518941840206764</v>
+        <v>0.05721839044161925</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.02586351245001772</v>
+        <v>0.04740006353959458</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.0008713568759322695</v>
+        <v>0.002608239461068854</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>3.016854392704673</v>
+        <v>2.845266988450732</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.9341192688970068</v>
+        <v>0.799705497978465</v>
       </c>
       <c r="L3">
-        <v>0.2605362083307909</v>
+        <v>0.2568509453645191</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7609293598463296</v>
+        <v>0.9037011543522624</v>
       </c>
       <c r="C4">
-        <v>0.1375852446515893</v>
+        <v>0.05297132539777749</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.02449747696507387</v>
+        <v>0.04727484433793983</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.0008761926743866516</v>
+        <v>0.002611127471306838</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.867521912530989</v>
+        <v>2.79955725436497</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.8534519664322033</v>
+        <v>0.7828389731793948</v>
       </c>
       <c r="L4">
-        <v>0.2409010475303859</v>
+        <v>0.2525065330281109</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7332210578130116</v>
+        <v>0.8991918857648784</v>
       </c>
       <c r="C5">
-        <v>0.1318059007753618</v>
+        <v>0.05124423535669109</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.02395076484481429</v>
+        <v>0.04723011184620951</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.000878196079357993</v>
+        <v>0.002612340289612146</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.807274881573633</v>
+        <v>2.781003120320293</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8209701325137928</v>
+        <v>0.7761208958891928</v>
       </c>
       <c r="L5">
-        <v>0.2329970890571644</v>
+        <v>0.2507735291021049</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7286414827803469</v>
+        <v>0.8984543763788793</v>
       </c>
       <c r="C6">
-        <v>0.1308491325852117</v>
+        <v>0.05095766839805549</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02386056432251316</v>
+        <v>0.04722306451628278</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.0008785307596764327</v>
+        <v>0.002612543850818132</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.797305310049495</v>
+        <v>2.777926580494992</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8155988253869566</v>
+        <v>0.7750147283492481</v>
       </c>
       <c r="L6">
-        <v>0.2316902291118197</v>
+        <v>0.2504880208929592</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7605542190558765</v>
+        <v>0.9036395864869746</v>
       </c>
       <c r="C7">
-        <v>0.1375071038259392</v>
+        <v>0.05294801875785993</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.02449006444283164</v>
+        <v>0.04727421555934441</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.0008762195585352295</v>
+        <v>0.002611143682122653</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.86670704493406</v>
+        <v>2.799306733546416</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.8530123832528602</v>
+        <v>0.7827477429244709</v>
       </c>
       <c r="L7">
-        <v>0.2407940709473309</v>
+        <v>0.2524830098663955</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9047593231146607</v>
+        <v>0.9281566267720507</v>
       </c>
       <c r="C8">
-        <v>0.1673631880395305</v>
+        <v>0.06176316165584694</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.02735733178669975</v>
+        <v>0.047555180150475</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.000866304993638647</v>
+        <v>0.00260528016433148</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>3.178508729468888</v>
+        <v>2.894297373770925</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.021667561575782</v>
+        <v>0.8182348214706678</v>
       </c>
       <c r="L8">
-        <v>0.2818526664844541</v>
+        <v>0.2616147928085866</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.202649328782087</v>
+        <v>0.9821232804170563</v>
       </c>
       <c r="C9">
-        <v>0.2282238263797893</v>
+        <v>0.07917489860943761</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.03335500340286401</v>
+        <v>0.04830428710752699</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.0008477905212097686</v>
+        <v>0.002594906293427002</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.815687081713619</v>
+        <v>3.083005725886309</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.368608495342301</v>
+        <v>0.8927474928094057</v>
       </c>
       <c r="L9">
-        <v>0.3663334040178228</v>
+        <v>0.2807079925585612</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.433897047852611</v>
+        <v>1.025380489954131</v>
       </c>
       <c r="C10">
-        <v>0.27499747208131</v>
+        <v>0.09205429731829895</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.03804731314188814</v>
+        <v>0.04897525586233087</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0008346541027441923</v>
+        <v>0.002587962391481025</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4.305678532054941</v>
+        <v>3.223255973192295</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.637075247666388</v>
+        <v>0.9505254722756717</v>
       </c>
       <c r="L10">
-        <v>0.4316574270161766</v>
+        <v>0.2954665166327572</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.542596740372687</v>
+        <v>1.045847248287259</v>
       </c>
       <c r="C11">
-        <v>0.2968887322474814</v>
+        <v>0.09793473507701833</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.04025842539304136</v>
+        <v>0.04930665799527034</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0008287542621587818</v>
+        <v>0.002584948954682992</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4.53488335930686</v>
+        <v>3.28743552386598</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.763093084580191</v>
+        <v>0.9774765621754682</v>
       </c>
       <c r="L11">
-        <v>0.4622942007417663</v>
+        <v>0.3023410705019387</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.584339095963969</v>
+        <v>1.053711165303099</v>
       </c>
       <c r="C12">
-        <v>0.3052823773240902</v>
+        <v>0.1001647673293746</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.04110807403458239</v>
+        <v>0.04943591077497089</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.0008265287347266074</v>
+        <v>0.002583828624675429</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>4.62272931777278</v>
+        <v>3.31179506207809</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.811461389873841</v>
+        <v>0.9877787264607321</v>
       </c>
       <c r="L12">
-        <v>0.4740479349206623</v>
+        <v>0.3049675257259139</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.575322016057925</v>
+        <v>1.052012474900437</v>
       </c>
       <c r="C13">
-        <v>0.3034697645028359</v>
+        <v>0.09968434370225054</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.04092451483353798</v>
+        <v>0.04940790683127005</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0008270076984402408</v>
+        <v>0.002584068984893876</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>4.60376089583437</v>
+        <v>3.306546277005509</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.801014058855088</v>
+        <v>0.9855556788450599</v>
       </c>
       <c r="L13">
-        <v>0.4715094446624732</v>
+        <v>0.3044008379264938</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.546018812056303</v>
+        <v>1.046491939764991</v>
       </c>
       <c r="C14">
-        <v>0.2975771035693811</v>
+        <v>0.09811813546127723</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.0403280708024667</v>
+        <v>0.04931721641692022</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0008285710082339508</v>
+        <v>0.002584856368452551</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>4.54208854839311</v>
+        <v>3.289438463336978</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.76705883948074</v>
+        <v>0.9783221938274664</v>
       </c>
       <c r="L14">
-        <v>0.4632580139075628</v>
+        <v>0.3025566848834131</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.528147727086008</v>
+        <v>1.043125251797505</v>
       </c>
       <c r="C15">
-        <v>0.2939817070528647</v>
+        <v>0.09715921360674429</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.03996438207949637</v>
+        <v>0.04926215514758781</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.000829529629304865</v>
+        <v>0.002585341368300531</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.504453899998595</v>
+        <v>3.278966792473284</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.746347500309383</v>
+        <v>0.9739040370583325</v>
       </c>
       <c r="L15">
-        <v>0.4582242320308723</v>
+        <v>0.3014301131729979</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.426870089475244</v>
+        <v>1.024058826468064</v>
       </c>
       <c r="C16">
-        <v>0.273580470587433</v>
+        <v>0.09167044227430665</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.03790446341882614</v>
+        <v>0.04895412414775535</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.0008350410082740531</v>
+        <v>0.00258816224225104</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4.290838310689111</v>
+        <v>3.219069454924067</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.628925311915964</v>
+        <v>0.9487776204133809</v>
       </c>
       <c r="L16">
-        <v>0.4296754127871196</v>
+        <v>0.2950204917620027</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.365688442223899</v>
+        <v>1.012564346058923</v>
       </c>
       <c r="C17">
-        <v>0.2612327029611947</v>
+        <v>0.08830887461240877</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03666128528062096</v>
+        <v>0.04877185685170282</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337215605</v>
       </c>
       <c r="G17">
-        <v>0.0008384399571446191</v>
+        <v>0.002589929911825628</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>4.161504726862006</v>
+        <v>3.182422614231882</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.557946907648727</v>
+        <v>0.9335346257039134</v>
       </c>
       <c r="L17">
-        <v>0.4124108455243345</v>
+        <v>0.2911296474521379</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.330823111127984</v>
+        <v>1.006027263257778</v>
       </c>
       <c r="C18">
-        <v>0.2541873146847422</v>
+        <v>0.08637740821345119</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.03595335948448231</v>
+        <v>0.04866948558730755</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0008404022473720296</v>
+        <v>0.002590960319401547</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>4.087699407635938</v>
+        <v>3.161379897189846</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.517482349210013</v>
+        <v>0.9248300726944194</v>
       </c>
       <c r="L18">
-        <v>0.4025660512190399</v>
+        <v>0.2889068693644532</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.31907190453245</v>
+        <v>1.003826664995245</v>
       </c>
       <c r="C19">
-        <v>0.2518111628179724</v>
+        <v>0.08572378925455837</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.03571485196317958</v>
+        <v>0.04863524782725115</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.6191636801734006</v>
       </c>
       <c r="G19">
-        <v>0.0008410679659441668</v>
+        <v>0.002591311552397188</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>4.062806346770543</v>
+        <v>3.154261255277007</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.503841106011038</v>
+        <v>0.9218936379227216</v>
       </c>
       <c r="L19">
-        <v>0.3992468593877874</v>
+        <v>0.2881568714191047</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.372167200640376</v>
+        <v>1.013780268591262</v>
       </c>
       <c r="C20">
-        <v>0.2625411661568364</v>
+        <v>0.08866650930835362</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.03679287786141394</v>
+        <v>0.04879100453911001</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.0008380773931328127</v>
+        <v>0.002589740324287675</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>4.175211077804335</v>
+        <v>3.186320039140412</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.565464778045964</v>
+        <v>0.9351507648188431</v>
       </c>
       <c r="L20">
-        <v>0.4142397203371218</v>
+        <v>0.2915422676960731</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.554609474290686</v>
+        <v>1.048110370297763</v>
       </c>
       <c r="C21">
-        <v>0.2993049666835077</v>
+        <v>0.09857807977203947</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.04050291430839437</v>
+        <v>0.04934375244559419</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723492197</v>
       </c>
       <c r="G21">
-        <v>0.0008281116121235714</v>
+        <v>0.002584624531345433</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>4.560173453437756</v>
+        <v>3.294461906385521</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.777013961720854</v>
+        <v>0.9804442251976866</v>
       </c>
       <c r="L21">
-        <v>0.4656773569272303</v>
+        <v>0.3030977267167145</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.677269931912264</v>
+        <v>1.071209309569724</v>
       </c>
       <c r="C22">
-        <v>0.3239465695305057</v>
+        <v>0.1050748047310606</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.04300034879318915</v>
+        <v>0.04972690697739068</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0008216473354005953</v>
+        <v>0.002581402209721376</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>4.817974396714988</v>
+        <v>3.365466826753789</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.919100370727421</v>
+        <v>1.010608028408427</v>
       </c>
       <c r="L22">
-        <v>0.5001932562987719</v>
+        <v>0.3107852186347344</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.611462746430675</v>
+        <v>1.058820318233842</v>
       </c>
       <c r="C23">
-        <v>0.3107329755099784</v>
+        <v>0.1016056001986101</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.04166028458801208</v>
+        <v>0.04952040807810221</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307915566</v>
       </c>
       <c r="G23">
-        <v>0.0008250937992669047</v>
+        <v>0.002583110975591192</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>4.679761215460957</v>
+        <v>3.327539615886025</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.84288384435493</v>
+        <v>0.9944574980097514</v>
       </c>
       <c r="L23">
-        <v>0.4816820659254404</v>
+        <v>0.3066698482741401</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.369237197723919</v>
+        <v>1.013230328100889</v>
       </c>
       <c r="C24">
-        <v>0.261949444439324</v>
+        <v>0.08850481911127872</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.03673336379350189</v>
+        <v>0.04878234034201867</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902313</v>
       </c>
       <c r="G24">
-        <v>0.0008382412826413853</v>
+        <v>0.002589825992906662</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>4.169012733246348</v>
+        <v>3.184557932345399</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.562064890541279</v>
+        <v>0.9344199250514862</v>
       </c>
       <c r="L24">
-        <v>0.4134126357226933</v>
+        <v>0.2913556781101363</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.120137124046238</v>
+        <v>0.9668916270301509</v>
       </c>
       <c r="C25">
-        <v>0.2114489373835653</v>
+        <v>0.07445005740525801</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.03168676175809892</v>
+        <v>0.0480804424664143</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347308</v>
       </c>
       <c r="G25">
-        <v>0.0008527095342889766</v>
+        <v>0.00259759311918759</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.639957576609319</v>
+        <v>3.031681977967295</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.272659322586179</v>
+        <v>0.8720595218709946</v>
       </c>
       <c r="L25">
-        <v>0.3429731815582073</v>
+        <v>0.2754150244351479</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_54/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9351974020079297</v>
+        <v>0.9447472360596123</v>
       </c>
       <c r="C2">
-        <v>0.06415970883649891</v>
+        <v>0.1755874697938253</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.04764472388581886</v>
+        <v>0.02815766069555181</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002603767831384336</v>
+        <v>0.0008636848134835343</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.920195067636683</v>
+        <v>3.264524461603884</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8281819962446946</v>
+        <v>1.068337953688228</v>
       </c>
       <c r="L2">
-        <v>0.2641690103052809</v>
+        <v>0.2932175757866986</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9152238243558486</v>
+        <v>0.8298383552183566</v>
       </c>
       <c r="C3">
-        <v>0.05721839044161925</v>
+        <v>0.1518941840209465</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.04740006353959458</v>
+        <v>0.02586351245006391</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002608239461068854</v>
+        <v>0.000871356875999866</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.845266988450732</v>
+        <v>3.01685439270473</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.799705497978465</v>
+        <v>0.9341192688970636</v>
       </c>
       <c r="L3">
-        <v>0.2568509453645191</v>
+        <v>0.2605362083309757</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9037011543522624</v>
+        <v>0.7609293598461591</v>
       </c>
       <c r="C4">
-        <v>0.05297132539777749</v>
+        <v>0.1375852446515751</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.04727484433793983</v>
+        <v>0.02449747696514137</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002611127471306838</v>
+        <v>0.0008761926743001117</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.79955725436497</v>
+        <v>2.867521912531018</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7828389731793948</v>
+        <v>0.8534519664322033</v>
       </c>
       <c r="L4">
-        <v>0.2525065330281109</v>
+        <v>0.2409010475303432</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8991918857648784</v>
+        <v>0.7332210578129832</v>
       </c>
       <c r="C5">
-        <v>0.05124423535669109</v>
+        <v>0.1318059007751486</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.04723011184620951</v>
+        <v>0.02395076484482672</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002612340289612146</v>
+        <v>0.0008781960793622617</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.781003120320293</v>
+        <v>2.807274881573647</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7761208958891928</v>
+        <v>0.8209701325138781</v>
       </c>
       <c r="L5">
-        <v>0.2507735291021049</v>
+        <v>0.2329970890570792</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8984543763788793</v>
+        <v>0.7286414827804322</v>
       </c>
       <c r="C6">
-        <v>0.05095766839805549</v>
+        <v>0.1308491325852117</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.04722306451628278</v>
+        <v>0.02386056432251493</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002612543850818132</v>
+        <v>0.0008785307596730484</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.777926580494992</v>
+        <v>2.797305310049552</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7750147283492481</v>
+        <v>0.8155988253869282</v>
       </c>
       <c r="L6">
-        <v>0.2504880208929592</v>
+        <v>0.2316902291116492</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9036395864869746</v>
+        <v>0.7605542190561039</v>
       </c>
       <c r="C7">
-        <v>0.05294801875785993</v>
+        <v>0.137507103826195</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.04727421555934441</v>
+        <v>0.02449006444287605</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.002611143682122653</v>
+        <v>0.0008762195585411423</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.799306733546416</v>
+        <v>2.866707044934046</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7827477429244709</v>
+        <v>0.8530123832529739</v>
       </c>
       <c r="L7">
-        <v>0.2524830098663955</v>
+        <v>0.2407940709473877</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9281566267720507</v>
+        <v>0.9047593231148312</v>
       </c>
       <c r="C8">
-        <v>0.06176316165584694</v>
+        <v>0.1673631880394879</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.047555180150475</v>
+        <v>0.02735733178669797</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.00260528016433148</v>
+        <v>0.0008663049936372808</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.894297373770925</v>
+        <v>3.178508729468902</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8182348214706678</v>
+        <v>1.021667561575725</v>
       </c>
       <c r="L8">
-        <v>0.2616147928085866</v>
+        <v>0.2818526664844114</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9821232804170563</v>
+        <v>1.202649328782229</v>
       </c>
       <c r="C9">
-        <v>0.07917489860943761</v>
+        <v>0.2282238263803009</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.04830428710752699</v>
+        <v>0.03335500340282138</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.002594906293427002</v>
+        <v>0.0008477905213148864</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.083005725886309</v>
+        <v>3.815687081713705</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.8927474928094057</v>
+        <v>1.368608495342102</v>
       </c>
       <c r="L9">
-        <v>0.2807079925585612</v>
+        <v>0.3663334040175812</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.025380489954131</v>
+        <v>1.433897047852611</v>
       </c>
       <c r="C10">
-        <v>0.09205429731829895</v>
+        <v>0.2749974720810542</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.04897525586233087</v>
+        <v>0.03804731314187393</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.002587962391481025</v>
+        <v>0.0008346541028030724</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3.223255973192295</v>
+        <v>4.305678532054969</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.9505254722756717</v>
+        <v>1.637075247666502</v>
       </c>
       <c r="L10">
-        <v>0.2954665166327572</v>
+        <v>0.4316574270162619</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.045847248287259</v>
+        <v>1.542596740373</v>
       </c>
       <c r="C11">
-        <v>0.09793473507701833</v>
+        <v>0.2968887322471119</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.04930665799527034</v>
+        <v>0.04025842539301294</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.002584948954682992</v>
+        <v>0.0008287542620656154</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3.28743552386598</v>
+        <v>4.53488335930686</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9774765621754682</v>
+        <v>1.76309308458039</v>
       </c>
       <c r="L11">
-        <v>0.3023410705019387</v>
+        <v>0.4622942007415389</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.053711165303099</v>
+        <v>1.584339095963998</v>
       </c>
       <c r="C12">
-        <v>0.1001647673293746</v>
+        <v>0.3052823773239481</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.04943591077497089</v>
+        <v>0.04110807403458949</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.002583828624675429</v>
+        <v>0.0008265287346479779</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3.31179506207809</v>
+        <v>4.622729317772666</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9877787264607321</v>
+        <v>1.811461389873813</v>
       </c>
       <c r="L12">
-        <v>0.3049675257259139</v>
+        <v>0.4740479349207334</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.052012474900437</v>
+        <v>1.575322016058038</v>
       </c>
       <c r="C13">
-        <v>0.09968434370225054</v>
+        <v>0.3034697645028643</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.04940790683127005</v>
+        <v>0.04092451483355219</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.002584068984893876</v>
+        <v>0.0008270076984524271</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3.306546277005509</v>
+        <v>4.603760895834313</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9855556788450599</v>
+        <v>1.801014058855003</v>
       </c>
       <c r="L13">
-        <v>0.3044008379264938</v>
+        <v>0.4715094446625159</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.046491939764991</v>
+        <v>1.546018812056133</v>
       </c>
       <c r="C14">
-        <v>0.09811813546127723</v>
+        <v>0.2975771035692674</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.04931721641692022</v>
+        <v>0.04032807080260525</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.002584856368452551</v>
+        <v>0.000828571008154942</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3.289438463336978</v>
+        <v>4.542088548393139</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.9783221938274664</v>
+        <v>1.767058839480825</v>
       </c>
       <c r="L14">
-        <v>0.3025566848834131</v>
+        <v>0.4632580139077618</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.043125251797505</v>
+        <v>1.528147727085837</v>
       </c>
       <c r="C15">
-        <v>0.09715921360674429</v>
+        <v>0.2939817070528647</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.04926215514758781</v>
+        <v>0.03996438207950348</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.002585341368300531</v>
+        <v>0.0008295296293349572</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3.278966792473284</v>
+        <v>4.504453899998538</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.9739040370583325</v>
+        <v>1.746347500309241</v>
       </c>
       <c r="L15">
-        <v>0.3014301131729979</v>
+        <v>0.4582242320308154</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.024058826468064</v>
+        <v>1.426870089475159</v>
       </c>
       <c r="C16">
-        <v>0.09167044227430665</v>
+        <v>0.2735804705877456</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.04895412414775535</v>
+        <v>0.03790446341881903</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.00258816224225104</v>
+        <v>0.0008350410083127879</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3.219069454924067</v>
+        <v>4.290838310689111</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.9487776204133809</v>
+        <v>1.628925311915935</v>
       </c>
       <c r="L16">
-        <v>0.2950204917620027</v>
+        <v>0.4296754127871907</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.012564346058923</v>
+        <v>1.365688442223899</v>
       </c>
       <c r="C17">
-        <v>0.08830887461240877</v>
+        <v>0.2612327029613368</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.04877185685170282</v>
+        <v>0.03666128528056234</v>
       </c>
       <c r="F17">
-        <v>0.6400460337215605</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.002589929911825628</v>
+        <v>0.000838439957115462</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.182422614231882</v>
+        <v>4.16150472686212</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.9335346257039134</v>
+        <v>1.557946907648699</v>
       </c>
       <c r="L17">
-        <v>0.2911296474521379</v>
+        <v>0.412410845524235</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.006027263257778</v>
+        <v>1.330823111128041</v>
       </c>
       <c r="C18">
-        <v>0.08637740821345119</v>
+        <v>0.2541873146849696</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.04866948558730755</v>
+        <v>0.03595335948450007</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.002590960319401547</v>
+        <v>0.0008404022472799005</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.161379897189846</v>
+        <v>4.08769940763591</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.9248300726944194</v>
+        <v>1.517482349209814</v>
       </c>
       <c r="L18">
-        <v>0.2889068693644532</v>
+        <v>0.4025660512189688</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.003826664995245</v>
+        <v>1.31907190453262</v>
       </c>
       <c r="C19">
-        <v>0.08572378925455837</v>
+        <v>0.2518111628177166</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.04863524782725115</v>
+        <v>0.03571485196317603</v>
       </c>
       <c r="F19">
-        <v>0.6191636801734006</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.002591311552397188</v>
+        <v>0.0008410679659435744</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3.154261255277007</v>
+        <v>4.062806346770543</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.9218936379227216</v>
+        <v>1.503841106011095</v>
       </c>
       <c r="L19">
-        <v>0.2881568714191047</v>
+        <v>0.3992468593874747</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.013780268591262</v>
+        <v>1.372167200640291</v>
       </c>
       <c r="C20">
-        <v>0.08866650930835362</v>
+        <v>0.262541166156808</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.04879100453911001</v>
+        <v>0.0367928778613873</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002589740324287675</v>
+        <v>0.0008380773932067878</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.186320039140412</v>
+        <v>4.175211077804391</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.9351507648188431</v>
+        <v>1.565464778045992</v>
       </c>
       <c r="L20">
-        <v>0.2915422676960731</v>
+        <v>0.414239720336937</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.048110370297763</v>
+        <v>1.554609474290743</v>
       </c>
       <c r="C21">
-        <v>0.09857807977203947</v>
+        <v>0.2993049666839909</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.04934375244559419</v>
+        <v>0.04050291430832687</v>
       </c>
       <c r="F21">
-        <v>0.7228739723492197</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002584624531345433</v>
+        <v>0.0008281116120851806</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3.294461906385521</v>
+        <v>4.560173453437756</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9804442251976866</v>
+        <v>1.777013961720627</v>
       </c>
       <c r="L21">
-        <v>0.3030977267167145</v>
+        <v>0.4656773569271877</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.071209309569724</v>
+        <v>1.677269931912349</v>
       </c>
       <c r="C22">
-        <v>0.1050748047310606</v>
+        <v>0.323946569529852</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.04972690697739068</v>
+        <v>0.04300034879317138</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.002581402209721376</v>
+        <v>0.0008216473355874505</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3.365466826753789</v>
+        <v>4.817974396715044</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.010608028408427</v>
+        <v>1.919100370727335</v>
       </c>
       <c r="L22">
-        <v>0.3107852186347344</v>
+        <v>0.5001932562988998</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.058820318233842</v>
+        <v>1.611462746430533</v>
       </c>
       <c r="C23">
-        <v>0.1016056001986101</v>
+        <v>0.3107329755100352</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.04952040807810221</v>
+        <v>0.04166028458799431</v>
       </c>
       <c r="F23">
-        <v>0.7472568307915566</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.002583110975591192</v>
+        <v>0.0008250937992647158</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3.327539615886025</v>
+        <v>4.679761215460985</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.9944574980097514</v>
+        <v>1.842883844354844</v>
       </c>
       <c r="L23">
-        <v>0.3066698482741401</v>
+        <v>0.4816820659255256</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.013230328100889</v>
+        <v>1.369237197723834</v>
       </c>
       <c r="C24">
-        <v>0.08850481911127872</v>
+        <v>0.2619494444390114</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.04878234034201867</v>
+        <v>0.0367333637934486</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902313</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.002589825992906662</v>
+        <v>0.0008382412826274953</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.184557932345399</v>
+        <v>4.169012733246376</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.9344199250514862</v>
+        <v>1.562064890541137</v>
       </c>
       <c r="L24">
-        <v>0.2913556781101363</v>
+        <v>0.4134126357224375</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9668916270301509</v>
+        <v>1.120137124046437</v>
       </c>
       <c r="C25">
-        <v>0.07445005740525801</v>
+        <v>0.2114489373829826</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.0480804424664143</v>
+        <v>0.03168676175812379</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347308</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.00259759311918759</v>
+        <v>0.0008527095343620405</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.031681977967295</v>
+        <v>3.639957576609334</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8720595218709946</v>
+        <v>1.272659322586264</v>
       </c>
       <c r="L25">
-        <v>0.2754150244351479</v>
+        <v>0.3429731815580936</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_54/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9447472360596123</v>
+        <v>0.7975593549105042</v>
       </c>
       <c r="C2">
-        <v>0.1755874697938253</v>
+        <v>0.1549263211627618</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.02815766069555181</v>
+        <v>0.372023122887974</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0008636848134835343</v>
+        <v>0.1958651666052091</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>5.279119226209161E-06</v>
       </c>
       <c r="I2">
-        <v>3.264524461603884</v>
+        <v>0.0005635254612847973</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.227155045242629</v>
       </c>
       <c r="K2">
-        <v>1.068337953688228</v>
+        <v>0.2141106356900586</v>
       </c>
       <c r="L2">
-        <v>0.2932175757866986</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.8728585480317577</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.5747674703721586</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.8386757908796483</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8298383552183566</v>
+        <v>0.6984566032572275</v>
       </c>
       <c r="C3">
-        <v>0.1518941840209465</v>
+        <v>0.1421192718401869</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.02586351245006391</v>
+        <v>0.3286508164734698</v>
       </c>
       <c r="F3">
-        <v>1.260820407314654</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.000871356875999866</v>
+        <v>0.198684589459905</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>8.650734753512523E-05</v>
       </c>
       <c r="I3">
-        <v>3.01685439270473</v>
+        <v>0.0008288952481101397</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2325185809331778</v>
       </c>
       <c r="K3">
-        <v>0.9341192688970636</v>
+        <v>0.2222623113383033</v>
       </c>
       <c r="L3">
-        <v>0.2605362083309757</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.7701374721605987</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.5006788632531212</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.8556422846236771</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7609293598461591</v>
+        <v>0.6373026604128995</v>
       </c>
       <c r="C4">
-        <v>0.1375852446515751</v>
+        <v>0.1343607703623348</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.02449747696514137</v>
+        <v>0.3019829548590991</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0008761926743001117</v>
+        <v>0.2007031923666744</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0002784391718180235</v>
       </c>
       <c r="I4">
-        <v>2.867521912531018</v>
+        <v>0.001114629269278744</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2360161249825303</v>
       </c>
       <c r="K4">
-        <v>0.8534519664322033</v>
+        <v>0.2274931245132343</v>
       </c>
       <c r="L4">
-        <v>0.2409010475303432</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.707000561104735</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.455187043871689</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.8670912536023678</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7332210578129832</v>
+        <v>0.6119906270704405</v>
       </c>
       <c r="C5">
-        <v>0.1318059007751486</v>
+        <v>0.1315457467041483</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.02395076484482672</v>
+        <v>0.2910521917129287</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0008781960793622617</v>
+        <v>0.2013176438210209</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0003909284335801289</v>
       </c>
       <c r="I5">
-        <v>2.807274881573647</v>
+        <v>0.001330661382774156</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2373397611539083</v>
       </c>
       <c r="K5">
-        <v>0.8209701325138781</v>
+        <v>0.2294836764119186</v>
       </c>
       <c r="L5">
-        <v>0.2329970890570792</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.681565936679192</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.4367206250873323</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.8711008920404382</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7286414827804322</v>
+        <v>0.6073984563650185</v>
       </c>
       <c r="C6">
-        <v>0.1308491325852117</v>
+        <v>0.1314756367689256</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02386056432251493</v>
+        <v>0.2891733208302156</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.0008785307596730484</v>
+        <v>0.201085187346159</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.000412040737704622</v>
       </c>
       <c r="I6">
-        <v>2.797305310049552</v>
+        <v>0.001461315872503199</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.237377275319048</v>
       </c>
       <c r="K6">
-        <v>0.8155988253869282</v>
+        <v>0.2295786152515271</v>
       </c>
       <c r="L6">
-        <v>0.2316902291116492</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.6777260760752171</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.4337465354378693</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.8706753942694903</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7605542190561039</v>
+        <v>0.6359085230748747</v>
       </c>
       <c r="C7">
-        <v>0.137507103826195</v>
+        <v>0.1354064388538632</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.02449006444287605</v>
+        <v>0.301663537259266</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.0008762195585411423</v>
+        <v>0.1997883903909319</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0002807565181901506</v>
       </c>
       <c r="I7">
-        <v>2.866707044934046</v>
+        <v>0.001356508290657032</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2355300252997097</v>
       </c>
       <c r="K7">
-        <v>0.8530123832529739</v>
+        <v>0.2268703442337561</v>
       </c>
       <c r="L7">
-        <v>0.2407940709473877</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.7077128001160702</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.4551913262323239</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.8641320436534343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9047593231148312</v>
+        <v>0.7620458446648399</v>
       </c>
       <c r="C8">
-        <v>0.1673631880394879</v>
+        <v>0.1519385704101666</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.02735733178669797</v>
+        <v>0.3568473270898807</v>
       </c>
       <c r="F8">
-        <v>1.39074283177348</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0008663049936372808</v>
+        <v>0.1955668105173309</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.827304520724994E-06</v>
       </c>
       <c r="I8">
-        <v>3.178508729468902</v>
+        <v>0.0009170343841935491</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2283058354160694</v>
       </c>
       <c r="K8">
-        <v>1.021667561575725</v>
+        <v>0.2160324241692564</v>
       </c>
       <c r="L8">
-        <v>0.2818526664844114</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.8388660483780654</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.549557072278418</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.8403696376642174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.202649328782229</v>
+        <v>1.00893867230829</v>
       </c>
       <c r="C9">
-        <v>0.2282238263803009</v>
+        <v>0.1833142668992167</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.03335500340282138</v>
+        <v>0.4651987870519108</v>
       </c>
       <c r="F9">
-        <v>1.895061171842812</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.0008477905213148864</v>
+        <v>0.1913399302060199</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0006689983779226694</v>
       </c>
       <c r="I9">
-        <v>3.815687081713705</v>
+        <v>0.0007304117179804948</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2166998658769685</v>
       </c>
       <c r="K9">
-        <v>1.368608495342102</v>
+        <v>0.1977698096289053</v>
       </c>
       <c r="L9">
-        <v>0.3663334040175812</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.093790961704315</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.734313611007309</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.8076791133412513</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.433897047852611</v>
+        <v>1.19472568978216</v>
       </c>
       <c r="C10">
-        <v>0.2749974720810542</v>
+        <v>0.207785564403494</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.03804731314187393</v>
+        <v>0.5108683872355684</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.0008346541028030724</v>
+        <v>0.1850553648862245</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.002033199978180189</v>
       </c>
       <c r="I10">
-        <v>4.305678532054969</v>
+        <v>0.001428328015880886</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2067362320381108</v>
       </c>
       <c r="K10">
-        <v>1.637075247666502</v>
+        <v>0.1830825597985957</v>
       </c>
       <c r="L10">
-        <v>0.4316574270162619</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.287307715408332</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.8409351840155068</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.7738804566135968</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.542596740373</v>
+        <v>1.333833420976021</v>
       </c>
       <c r="C11">
-        <v>0.2968887322471119</v>
+        <v>0.2226672214075194</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.04025842539301294</v>
+        <v>0.2814023446931273</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0008287542620656154</v>
+        <v>0.1463854391406265</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02006674663403984</v>
       </c>
       <c r="I11">
-        <v>4.53488335930686</v>
+        <v>0.00216756055305467</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1832953647988518</v>
       </c>
       <c r="K11">
-        <v>1.76309308458039</v>
+        <v>0.1594988916647413</v>
       </c>
       <c r="L11">
-        <v>0.4622942007415389</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.428074384503333</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.6499575317490027</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.6429410802779145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.584339095963998</v>
+        <v>1.41679945245059</v>
       </c>
       <c r="C12">
-        <v>0.3052823773239481</v>
+        <v>0.228493184940163</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.04110807403458949</v>
+        <v>0.1381848113679283</v>
       </c>
       <c r="F12">
-        <v>2.518780942186368</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0008265287346479779</v>
+        <v>0.1204451373830508</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05832952988424012</v>
       </c>
       <c r="I12">
-        <v>4.622729317772666</v>
+        <v>0.002223862436828483</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1680810469173188</v>
       </c>
       <c r="K12">
-        <v>1.811461389873813</v>
+        <v>0.1467563552010471</v>
       </c>
       <c r="L12">
-        <v>0.4740479349207334</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.506960727405783</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.4887392003929136</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.5561192342097456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.575322016058038</v>
+        <v>1.458877845899366</v>
       </c>
       <c r="C13">
-        <v>0.3034697645028643</v>
+        <v>0.2293533073612366</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.04092451483355219</v>
+        <v>0.05217533331905777</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.0008270076984524271</v>
+        <v>0.1010985801401993</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1137099598230975</v>
       </c>
       <c r="I13">
-        <v>4.603760895834313</v>
+        <v>0.002091200573520524</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1573567344201798</v>
       </c>
       <c r="K13">
-        <v>1.801014058855003</v>
+        <v>0.1403244897699931</v>
       </c>
       <c r="L13">
-        <v>0.4715094446625159</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.543681915798345</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.3422013119166394</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.4926045048195959</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.546018812056133</v>
+        <v>1.469408260774799</v>
       </c>
       <c r="C14">
-        <v>0.2975771035692674</v>
+        <v>0.2280834812579968</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.04032807080260525</v>
+        <v>0.02573793436930805</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.000828571008154942</v>
+        <v>0.09093437135960691</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1628350705371417</v>
       </c>
       <c r="I14">
-        <v>4.542088548393139</v>
+        <v>0.00199866955232153</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1520165719474065</v>
       </c>
       <c r="K14">
-        <v>1.767058839480825</v>
+        <v>0.1389594102881003</v>
       </c>
       <c r="L14">
-        <v>0.4632580139077618</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.550601467408512</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.2502105612632057</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.4598095872380554</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.528147727085837</v>
+        <v>1.462245243063165</v>
       </c>
       <c r="C15">
-        <v>0.2939817070528647</v>
+        <v>0.2271679660955499</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.03996438207950348</v>
+        <v>0.02374285211497586</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.0008295296293349572</v>
+        <v>0.0891895452613749</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1752668858850797</v>
       </c>
       <c r="I15">
-        <v>4.504453899998538</v>
+        <v>0.002047444542203181</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1513488267591061</v>
       </c>
       <c r="K15">
-        <v>1.746347500309241</v>
+        <v>0.139507890231235</v>
       </c>
       <c r="L15">
-        <v>0.4582242320308154</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.543316544613873</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.2282703650483668</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.4546795634240475</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.426870089475159</v>
+        <v>1.371181083673633</v>
       </c>
       <c r="C16">
-        <v>0.2735804705877456</v>
+        <v>0.2169670357125426</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.03790446341881903</v>
+        <v>0.02416269916815228</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.0008350410083127879</v>
+        <v>0.09490334220976671</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1621901409775433</v>
       </c>
       <c r="I16">
-        <v>4.290838310689111</v>
+        <v>0.001858105882558192</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1571345190522155</v>
       </c>
       <c r="K16">
-        <v>1.628925311915935</v>
+        <v>0.1461168968385553</v>
       </c>
       <c r="L16">
-        <v>0.4296754127871907</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.451396836506092</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.2170577365364323</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.4787482407864019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.365688442223899</v>
+        <v>1.295931194998104</v>
       </c>
       <c r="C17">
-        <v>0.2612327029613368</v>
+        <v>0.2098924123067007</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03666128528056234</v>
+        <v>0.03286873461186701</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.000838439957115462</v>
+        <v>0.1044249204463448</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1242459311077653</v>
       </c>
       <c r="I17">
-        <v>4.16150472686212</v>
+        <v>0.001800410141452602</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1643446704722091</v>
       </c>
       <c r="K17">
-        <v>1.557946907648699</v>
+        <v>0.1517746043520708</v>
       </c>
       <c r="L17">
-        <v>0.412410845524235</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.377511745735774</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.2544883849812081</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.5139439841164659</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.330823111128041</v>
+        <v>1.227753772639574</v>
       </c>
       <c r="C18">
-        <v>0.2541873146849696</v>
+        <v>0.2037627379781526</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.03595335948450007</v>
+        <v>0.07862682776221419</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0008404022472799005</v>
+        <v>0.1206645213092585</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07142627993258799</v>
       </c>
       <c r="I18">
-        <v>4.08769940763591</v>
+        <v>0.001547045071756514</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1746892732002436</v>
       </c>
       <c r="K18">
-        <v>1.517482349209814</v>
+        <v>0.158913293516632</v>
       </c>
       <c r="L18">
-        <v>0.4025660512189688</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.310614498512734</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.3495299516170078</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.5700011531080236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.31907190453262</v>
+        <v>1.169311464543313</v>
       </c>
       <c r="C19">
-        <v>0.2518111628177166</v>
+        <v>0.2012751265885129</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.03571485196317603</v>
+        <v>0.1944413737624444</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.0008410679659435744</v>
+        <v>0.1432174540267255</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02643909903626707</v>
       </c>
       <c r="I19">
-        <v>4.062806346770543</v>
+        <v>0.001678163874902161</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1875837934243769</v>
       </c>
       <c r="K19">
-        <v>1.503841106011095</v>
+        <v>0.1685860611260184</v>
       </c>
       <c r="L19">
-        <v>0.3992468593874747</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.257608963262612</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.5026799577980157</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.6448295153113506</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.372167200640291</v>
+        <v>1.142901936508053</v>
       </c>
       <c r="C20">
-        <v>0.262541166156808</v>
+        <v>0.2048619705473982</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.0367928778613873</v>
+        <v>0.496914705915124</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0008380773932067878</v>
+        <v>0.1836602931691402</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.001591417170374143</v>
       </c>
       <c r="I20">
-        <v>4.175211077804391</v>
+        <v>0.00194679968561573</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2077076878046356</v>
       </c>
       <c r="K20">
-        <v>1.565464778045992</v>
+        <v>0.1849220832962679</v>
       </c>
       <c r="L20">
-        <v>0.414239720336937</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.240134416802306</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.8124990355656649</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.7728549041491277</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.554609474290743</v>
+        <v>1.276076600726128</v>
       </c>
       <c r="C21">
-        <v>0.2993049666839909</v>
+        <v>0.2229037781318368</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.04050291430832687</v>
+        <v>0.5846241598208124</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0008281116120851806</v>
+        <v>0.1868609356046989</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.002932705675461555</v>
       </c>
       <c r="I21">
-        <v>4.560173453437756</v>
+        <v>0.00259894191955734</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2043392381533451</v>
       </c>
       <c r="K21">
-        <v>1.777013961720627</v>
+        <v>0.1778990030075267</v>
       </c>
       <c r="L21">
-        <v>0.4656773569271877</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.379319579235073</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.9400825770000338</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0.7728858319665619</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.677269931912349</v>
+        <v>1.367489538048915</v>
       </c>
       <c r="C22">
-        <v>0.323946569529852</v>
+        <v>0.2334677503642553</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.04300034879317138</v>
+        <v>0.6249624720282156</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.0008216473355874505</v>
+        <v>0.1882256396246973</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.004005559545099957</v>
       </c>
       <c r="I22">
-        <v>4.817974396715044</v>
+        <v>0.002879347668777399</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2017999935048209</v>
       </c>
       <c r="K22">
-        <v>1.919100370727335</v>
+        <v>0.1732115042082523</v>
       </c>
       <c r="L22">
-        <v>0.5001932562988998</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.47181492176918</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.008220803048893</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0.7706501534211583</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.611462746430533</v>
+        <v>1.319998000954797</v>
       </c>
       <c r="C23">
-        <v>0.3107329755100352</v>
+        <v>0.2264632662817547</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.04166028458799431</v>
+        <v>0.6036265776105409</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.0008250937992647158</v>
+        <v>0.1884977928883345</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.003417117986957763</v>
       </c>
       <c r="I23">
-        <v>4.679761215460985</v>
+        <v>0.00242605665021145</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2036857029741128</v>
       </c>
       <c r="K23">
-        <v>1.842883844354844</v>
+        <v>0.176379801834484</v>
       </c>
       <c r="L23">
-        <v>0.4816820659255256</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.421135140019544</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.9715339878171463</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0.7750761932208263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.369237197723834</v>
+        <v>1.137734539713136</v>
       </c>
       <c r="C24">
-        <v>0.2619494444390114</v>
+        <v>0.2023677763207417</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.0367333637934486</v>
+        <v>0.5226629616650271</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.0008382412826274953</v>
+        <v>0.188688065298841</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.001576689245338159</v>
       </c>
       <c r="I24">
-        <v>4.169012733246376</v>
+        <v>0.001475839753624975</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2104426946559457</v>
       </c>
       <c r="K24">
-        <v>1.562064890541137</v>
+        <v>0.1878396798342497</v>
       </c>
       <c r="L24">
-        <v>0.4134126357224375</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.231428049532184</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.8333682878577378</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0.789241387962349</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.120137124046437</v>
+        <v>0.9404532457475341</v>
       </c>
       <c r="C25">
-        <v>0.2114489373829826</v>
+        <v>0.1767362653895219</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.03168676175812379</v>
+        <v>0.4355769454723628</v>
       </c>
       <c r="F25">
         <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.0008527095343620405</v>
+        <v>0.1905790852375659</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0003454396172570817</v>
       </c>
       <c r="I25">
-        <v>3.639957576609334</v>
+        <v>0.001073175282924055</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2187772979914655</v>
       </c>
       <c r="K25">
-        <v>1.272659322586264</v>
+        <v>0.2013912709952397</v>
       </c>
       <c r="L25">
-        <v>0.3429731815580936</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.026798395678128</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.6847525264911241</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.810264733267033</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_54/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7975593549105042</v>
+        <v>0.7975624628803359</v>
       </c>
       <c r="C2">
-        <v>0.1549263211627618</v>
+        <v>0.1513170344729531</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.372023122887974</v>
+        <v>0.3723560402338677</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.1958651666052091</v>
+        <v>0.1707380262971547</v>
       </c>
       <c r="H2">
-        <v>5.279119226209161E-06</v>
+        <v>1.544448569812396E-05</v>
       </c>
       <c r="I2">
-        <v>0.0005635254612847973</v>
+        <v>0.0005521261486256535</v>
       </c>
       <c r="J2">
-        <v>0.227155045242629</v>
+        <v>0.2508897436489299</v>
       </c>
       <c r="K2">
-        <v>0.2141106356900586</v>
+        <v>0.2013707212801528</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1133249066303232</v>
       </c>
       <c r="M2">
-        <v>0.8728585480317577</v>
+        <v>0.04655945349346569</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.5747674703721586</v>
+        <v>0.879563719356014</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.8386757908796483</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.5768930591905459</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.8052199287588948</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6984566032572275</v>
+        <v>0.7012674629008586</v>
       </c>
       <c r="C3">
-        <v>0.1421192718401869</v>
+        <v>0.1355456386052651</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3286508164734698</v>
+        <v>0.3295831386121719</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.198684589459905</v>
+        <v>0.1750133850211739</v>
       </c>
       <c r="H3">
-        <v>8.650734753512523E-05</v>
+        <v>5.373859713175833E-05</v>
       </c>
       <c r="I3">
-        <v>0.0008288952481101397</v>
+        <v>0.0006534131591240389</v>
       </c>
       <c r="J3">
-        <v>0.2325185809331778</v>
+        <v>0.2549091400232513</v>
       </c>
       <c r="K3">
-        <v>0.2222623113383033</v>
+        <v>0.2094771005473248</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1184389255597633</v>
       </c>
       <c r="M3">
-        <v>0.7701374721605987</v>
+        <v>0.04902548302636545</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.5006788632531212</v>
+        <v>0.7746862454421688</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.8556422846236771</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.5022576614197263</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.8247858194903088</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6373026604128995</v>
+        <v>0.641770854481166</v>
       </c>
       <c r="C4">
-        <v>0.1343607703623348</v>
+        <v>0.1260449933370325</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3019829548590991</v>
+        <v>0.3032756390614821</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.2007031923666744</v>
+        <v>0.1779257568457062</v>
       </c>
       <c r="H4">
-        <v>0.0002784391718180235</v>
+        <v>0.0002103233333807797</v>
       </c>
       <c r="I4">
-        <v>0.001114629269278744</v>
+        <v>0.0008206956037430935</v>
       </c>
       <c r="J4">
-        <v>0.2360161249825303</v>
+        <v>0.2574683615876587</v>
       </c>
       <c r="K4">
-        <v>0.2274931245132343</v>
+        <v>0.2146365790215441</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.121828334349745</v>
       </c>
       <c r="M4">
-        <v>0.707000561104735</v>
+        <v>0.05093084970967476</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.455187043871689</v>
+        <v>0.7102762291260092</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.8670912536023678</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.4564334818006515</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.8376280907104032</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6119906270704405</v>
+        <v>0.6171259223043535</v>
       </c>
       <c r="C5">
-        <v>0.1315457467041483</v>
+        <v>0.1225380392355646</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2910521917129287</v>
+        <v>0.2924912560478958</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.2013176438210209</v>
+        <v>0.1789202230420806</v>
       </c>
       <c r="H5">
-        <v>0.0003909284335801289</v>
+        <v>0.0003062144600742833</v>
       </c>
       <c r="I5">
-        <v>0.001330661382774156</v>
+        <v>0.0009963265486767625</v>
       </c>
       <c r="J5">
-        <v>0.2373397611539083</v>
+        <v>0.2583801453555488</v>
       </c>
       <c r="K5">
-        <v>0.2294836764119186</v>
+        <v>0.2165984349963139</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1231505850255541</v>
       </c>
       <c r="M5">
-        <v>0.681565936679192</v>
+        <v>0.05178581128997817</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.4367206250873323</v>
+        <v>0.6843285055954453</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.8711008920404382</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.4378307891774327</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.8421919455164897</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6073984563650185</v>
+        <v>0.612653408858705</v>
       </c>
       <c r="C6">
-        <v>0.1314756367689256</v>
+        <v>0.1223527408372291</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2891733208302156</v>
+        <v>0.2906382046499516</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.201085187346159</v>
+        <v>0.178770919310498</v>
       </c>
       <c r="H6">
-        <v>0.000412040737704622</v>
+        <v>0.0003243839154307704</v>
       </c>
       <c r="I6">
-        <v>0.001461315872503199</v>
+        <v>0.001136330751237757</v>
       </c>
       <c r="J6">
-        <v>0.237377275319048</v>
+        <v>0.2583454917215811</v>
       </c>
       <c r="K6">
-        <v>0.2295786152515271</v>
+        <v>0.2167017759730232</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1232266017608552</v>
       </c>
       <c r="M6">
-        <v>0.6777260760752171</v>
+        <v>0.05190962663472731</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.4337465354378693</v>
+        <v>0.6803948718004449</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.8706753942694903</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.4348317040636971</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.8419005427885793</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6359085230748747</v>
+        <v>0.6405349356413979</v>
       </c>
       <c r="C7">
-        <v>0.1354064388538632</v>
+        <v>0.1268983832626276</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.301663537259266</v>
+        <v>0.3029618461460828</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.1997883903909319</v>
+        <v>0.1783472053781772</v>
       </c>
       <c r="H7">
-        <v>0.0002807565181901506</v>
+        <v>0.0002129125616723293</v>
       </c>
       <c r="I7">
-        <v>0.001356508290657032</v>
+        <v>0.001105544182665952</v>
       </c>
       <c r="J7">
-        <v>0.2355300252997097</v>
+        <v>0.2547843041632234</v>
       </c>
       <c r="K7">
-        <v>0.2268703442337561</v>
+        <v>0.2138237281011666</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1213161052778116</v>
       </c>
       <c r="M7">
-        <v>0.7077128001160702</v>
+        <v>0.05083262690767665</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.4551913262323239</v>
+        <v>0.7107539008618886</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.8641320436534343</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.456387038600397</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.8331698515215606</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7620458446648399</v>
+        <v>0.7634815786433649</v>
       </c>
       <c r="C8">
-        <v>0.1519385704101666</v>
+        <v>0.1466921168261734</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3568473270898807</v>
+        <v>0.3573969271761186</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.1955668105173309</v>
+        <v>0.1752863206218969</v>
       </c>
       <c r="H8">
-        <v>2.827304520724994E-06</v>
+        <v>5.209166431541234E-13</v>
       </c>
       <c r="I8">
-        <v>0.0009170343841935491</v>
+        <v>0.0009077457654029786</v>
       </c>
       <c r="J8">
-        <v>0.2283058354160694</v>
+        <v>0.2446782764388615</v>
       </c>
       <c r="K8">
-        <v>0.2160324241692564</v>
+        <v>0.2026303000625918</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1142109889011174</v>
       </c>
       <c r="M8">
-        <v>0.8388660483780654</v>
+        <v>0.04701290861695329</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.549557072278418</v>
+        <v>0.8441131548203487</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.8403696376642174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.551341694960378</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.8027525296577807</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.00893867230829</v>
+        <v>1.003068401803802</v>
       </c>
       <c r="C9">
-        <v>0.1833142668992167</v>
+        <v>0.1857261251930424</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4651987870519108</v>
+        <v>0.4642060605196932</v>
       </c>
       <c r="F9">
         <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.1913399302060199</v>
+        <v>0.1685239109337076</v>
       </c>
       <c r="H9">
-        <v>0.0006689983779226694</v>
+        <v>0.0007142476687989063</v>
       </c>
       <c r="I9">
-        <v>0.0007304117179804948</v>
+        <v>0.0009683106715039358</v>
       </c>
       <c r="J9">
-        <v>0.2166998658769685</v>
+        <v>0.2340199776981038</v>
       </c>
       <c r="K9">
-        <v>0.1977698096289053</v>
+        <v>0.1840464367016565</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1033459889634321</v>
       </c>
       <c r="M9">
-        <v>1.093790961704315</v>
+        <v>0.04298345490115185</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.734313611007309</v>
+        <v>1.104516325260676</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.8076791133412513</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.7374291073706871</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.7609735669932292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.19472568978216</v>
+        <v>1.184325823142217</v>
       </c>
       <c r="C10">
-        <v>0.207785564403494</v>
+        <v>0.214629536374872</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.5108683872355684</v>
+        <v>0.5088580473540318</v>
       </c>
       <c r="F10">
         <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.1850553648862245</v>
+        <v>0.1685867924405144</v>
       </c>
       <c r="H10">
-        <v>0.002033199978180189</v>
+        <v>0.002050364065729227</v>
       </c>
       <c r="I10">
-        <v>0.001428328015880886</v>
+        <v>0.00175317261229857</v>
       </c>
       <c r="J10">
-        <v>0.2067362320381108</v>
+        <v>0.214396093280584</v>
       </c>
       <c r="K10">
-        <v>0.1830825597985957</v>
+        <v>0.1683924425023289</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.0955783294493866</v>
       </c>
       <c r="M10">
-        <v>1.287307715408332</v>
+        <v>0.04067230059458637</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.8409351840155068</v>
+        <v>1.300607274177139</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.7738804566135968</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.8445660697085842</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.7130574018150639</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.333833420976021</v>
+        <v>1.326711161252888</v>
       </c>
       <c r="C11">
-        <v>0.2226672214075194</v>
+        <v>0.2252520575436421</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2814023446931273</v>
+        <v>0.2800595399639931</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.1463854391406265</v>
+        <v>0.1473169933094738</v>
       </c>
       <c r="H11">
-        <v>0.02006674663403984</v>
+        <v>0.02005613967606124</v>
       </c>
       <c r="I11">
-        <v>0.00216756055305467</v>
+        <v>0.002577440299112332</v>
       </c>
       <c r="J11">
-        <v>0.1832953647988518</v>
+        <v>0.184422954354547</v>
       </c>
       <c r="K11">
-        <v>0.1594988916647413</v>
+        <v>0.1478848550560556</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.08843006077169879</v>
       </c>
       <c r="M11">
-        <v>1.428074384503333</v>
+        <v>0.03348308740263928</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.6499575317490027</v>
+        <v>1.436382979747094</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.6429410802779145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.652015009393125</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.5837955243785586</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.41679945245059</v>
+        <v>1.41319445508546</v>
       </c>
       <c r="C12">
-        <v>0.228493184940163</v>
+        <v>0.2269668553334014</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1381848113679283</v>
+        <v>0.1373527276303896</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.1204451373830508</v>
+        <v>0.1271262772123656</v>
       </c>
       <c r="H12">
-        <v>0.05832952988424012</v>
+        <v>0.05831391156255705</v>
       </c>
       <c r="I12">
-        <v>0.002223862436828483</v>
+        <v>0.002622848221689011</v>
       </c>
       <c r="J12">
-        <v>0.1680810469173188</v>
+        <v>0.1758645379393096</v>
       </c>
       <c r="K12">
-        <v>0.1467563552010471</v>
+        <v>0.1383320963871437</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.08586890120567636</v>
       </c>
       <c r="M12">
-        <v>1.506960727405783</v>
+        <v>0.02929327396997294</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.4887392003929136</v>
+        <v>1.510912324279559</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.5561192342097456</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.4897721812786671</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.506976244914334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.458877845899366</v>
+        <v>1.458789460643743</v>
       </c>
       <c r="C13">
-        <v>0.2293533073612366</v>
+        <v>0.2242180013254256</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.05217533331905777</v>
+        <v>0.05173969111580057</v>
       </c>
       <c r="F13">
         <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.1010985801401993</v>
+        <v>0.104100758978106</v>
       </c>
       <c r="H13">
-        <v>0.1137099598230975</v>
+        <v>0.113701673235056</v>
       </c>
       <c r="I13">
-        <v>0.002091200573520524</v>
+        <v>0.002488456151943375</v>
       </c>
       <c r="J13">
-        <v>0.1573567344201798</v>
+        <v>0.1745921276345088</v>
       </c>
       <c r="K13">
-        <v>0.1403244897699931</v>
+        <v>0.1348677564922327</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.08533655207612778</v>
       </c>
       <c r="M13">
-        <v>1.543681915798345</v>
+        <v>0.02701803127885993</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.3422013119166394</v>
+        <v>1.544107407050348</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.4926045048195959</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3425700230145807</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.4593812143703602</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.469408260774799</v>
+        <v>1.471789283595939</v>
       </c>
       <c r="C14">
-        <v>0.2280834812579968</v>
+        <v>0.220635200370964</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.02573793436930805</v>
+        <v>0.02549947131501362</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.09093437135960691</v>
+        <v>0.08868968807223609</v>
       </c>
       <c r="H14">
-        <v>0.1628350705371417</v>
+        <v>0.1628339172779221</v>
       </c>
       <c r="I14">
-        <v>0.00199866955232153</v>
+        <v>0.002411835852993427</v>
       </c>
       <c r="J14">
-        <v>0.1520165719474065</v>
+        <v>0.174705301300909</v>
       </c>
       <c r="K14">
-        <v>0.1389594102881003</v>
+        <v>0.1349851688556289</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.08561307217640568</v>
       </c>
       <c r="M14">
-        <v>1.550601467408512</v>
+        <v>0.02640848551372799</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.2502105612632057</v>
+        <v>1.548910543807722</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.4598095872380554</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2502582427428095</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.4380575435143683</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.462245243063165</v>
+        <v>1.465220668227005</v>
       </c>
       <c r="C15">
-        <v>0.2271679660955499</v>
+        <v>0.2192440410191097</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.02374285211497586</v>
+        <v>0.02356148099280178</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.0891895452613749</v>
+        <v>0.08479428367020958</v>
       </c>
       <c r="H15">
-        <v>0.1752668858850797</v>
+        <v>0.1752685916812169</v>
       </c>
       <c r="I15">
-        <v>0.002047444542203181</v>
+        <v>0.002487369015819141</v>
       </c>
       <c r="J15">
-        <v>0.1513488267591061</v>
+        <v>0.1750563254485655</v>
       </c>
       <c r="K15">
-        <v>0.139507890231235</v>
+        <v>0.1357449549621101</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.08581395859751861</v>
       </c>
       <c r="M15">
-        <v>1.543316544613873</v>
+        <v>0.02654588949359227</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.2282703650483668</v>
+        <v>1.541290197160436</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.4546795634240475</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2282664465418094</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.4361650895785374</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.371181083673633</v>
+        <v>1.3740682234654</v>
       </c>
       <c r="C16">
-        <v>0.2169670357125426</v>
+        <v>0.2097745177785981</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.02416269916815228</v>
+        <v>0.02421951868221195</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.09490334220976671</v>
+        <v>0.08331909562405393</v>
       </c>
       <c r="H16">
-        <v>0.1621901409775433</v>
+        <v>0.1621999645041399</v>
       </c>
       <c r="I16">
-        <v>0.001858105882558192</v>
+        <v>0.002318682210368017</v>
       </c>
       <c r="J16">
-        <v>0.1571345190522155</v>
+        <v>0.1819203698211895</v>
       </c>
       <c r="K16">
-        <v>0.1461168968385553</v>
+        <v>0.1416486304719762</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.08691141736634922</v>
       </c>
       <c r="M16">
-        <v>1.451396836506092</v>
+        <v>0.02875602574731018</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.2170577365364323</v>
+        <v>1.451030925351745</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.4787482407864019</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2171922870175536</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.466145081932396</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.295931194998104</v>
+        <v>1.297687501729911</v>
       </c>
       <c r="C17">
-        <v>0.2098924123067007</v>
+        <v>0.2041658268448145</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03286873461186701</v>
+        <v>0.0330217186610815</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.1044249204463448</v>
+        <v>0.08971969367314614</v>
       </c>
       <c r="H17">
-        <v>0.1242459311077653</v>
+        <v>0.124256613925553</v>
       </c>
       <c r="I17">
-        <v>0.001800410141452602</v>
+        <v>0.002264281987460315</v>
       </c>
       <c r="J17">
-        <v>0.1643446704722091</v>
+        <v>0.1903842064563879</v>
       </c>
       <c r="K17">
-        <v>0.1517746043520708</v>
+        <v>0.1465276566491065</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.08815672568427924</v>
       </c>
       <c r="M17">
-        <v>1.377511745735774</v>
+        <v>0.03063147192793791</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.2544883849812081</v>
+        <v>1.37917043876547</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.5139439841164659</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2548835517579313</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.5013307884839939</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.227753772639574</v>
+        <v>1.227093810457831</v>
       </c>
       <c r="C18">
-        <v>0.2037627379781526</v>
+        <v>0.2006851032858208</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.07862682776221419</v>
+        <v>0.07867850369092722</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.1206645213092585</v>
+        <v>0.1032657986171479</v>
       </c>
       <c r="H18">
-        <v>0.07142627993258799</v>
+        <v>0.0714408689256345</v>
       </c>
       <c r="I18">
-        <v>0.001547045071756514</v>
+        <v>0.001961195273677774</v>
       </c>
       <c r="J18">
-        <v>0.1746892732002436</v>
+        <v>0.2009332906760726</v>
       </c>
       <c r="K18">
-        <v>0.158913293516632</v>
+        <v>0.1524512480628202</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.0901957577080621</v>
       </c>
       <c r="M18">
-        <v>1.310614498512734</v>
+        <v>0.03282293136562764</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.3495299516170078</v>
+        <v>1.315238539488831</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.5700011531080236</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.3504759641203918</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.5528821130780273</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.169311464543313</v>
+        <v>1.165430346066159</v>
       </c>
       <c r="C19">
-        <v>0.2012751265885129</v>
+        <v>0.201707386388577</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1944413737624444</v>
+        <v>0.1940785734674435</v>
       </c>
       <c r="F19">
         <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.1432174540267255</v>
+        <v>0.1226996626052106</v>
       </c>
       <c r="H19">
-        <v>0.02643909903626707</v>
+        <v>0.02646391061665554</v>
       </c>
       <c r="I19">
-        <v>0.001678163874902161</v>
+        <v>0.002119618957356018</v>
       </c>
       <c r="J19">
-        <v>0.1875837934243769</v>
+        <v>0.2128219993820011</v>
       </c>
       <c r="K19">
-        <v>0.1685860611260184</v>
+        <v>0.1601269788838895</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.09313155903301906</v>
       </c>
       <c r="M19">
-        <v>1.257608963262612</v>
+        <v>0.03566196392286169</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.5026799577980157</v>
+        <v>1.265722326753433</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.6448295153113506</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.504523625872686</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.6187739814583253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.142901936508053</v>
+        <v>1.133383376107247</v>
       </c>
       <c r="C20">
-        <v>0.2048619705473982</v>
+        <v>0.2113284654493555</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.496914705915124</v>
+        <v>0.495182301402771</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.1836602931691402</v>
+        <v>0.1610290685032965</v>
       </c>
       <c r="H20">
-        <v>0.001591417170374143</v>
+        <v>0.001624909010118358</v>
       </c>
       <c r="I20">
-        <v>0.00194679968561573</v>
+        <v>0.002420090337484915</v>
       </c>
       <c r="J20">
-        <v>0.2077076878046356</v>
+        <v>0.2243725851591911</v>
       </c>
       <c r="K20">
-        <v>0.1849220832962679</v>
+        <v>0.1714835812299125</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.09714236235295548</v>
       </c>
       <c r="M20">
-        <v>1.240134416802306</v>
+        <v>0.04081843680582242</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.8124990355656649</v>
+        <v>1.253399405166988</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.7728549041491277</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.8161297776710796</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.7220732966061405</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.276076600726128</v>
+        <v>1.26474971537823</v>
       </c>
       <c r="C21">
-        <v>0.2229037781318368</v>
+        <v>0.2299177408191753</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.5846241598208124</v>
+        <v>0.5819722136150105</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.1868609356046989</v>
+        <v>0.1953402808272102</v>
       </c>
       <c r="H21">
-        <v>0.002932705675461555</v>
+        <v>0.002892521871305398</v>
       </c>
       <c r="I21">
-        <v>0.00259894191955734</v>
+        <v>0.003035303255075839</v>
       </c>
       <c r="J21">
-        <v>0.2043392381533451</v>
+        <v>0.1881559582726968</v>
       </c>
       <c r="K21">
-        <v>0.1778990030075267</v>
+        <v>0.1593670293104346</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.09173811988422464</v>
       </c>
       <c r="M21">
-        <v>1.379319579235073</v>
+        <v>0.03916073873070047</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.9400825770000338</v>
+        <v>1.39142165377217</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0.7728858319665619</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.9435034214098437</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.679499985943707</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.367489538048915</v>
+        <v>1.35537333911077</v>
       </c>
       <c r="C22">
-        <v>0.2334677503642553</v>
+        <v>0.2402890810255514</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.6249624720282156</v>
+        <v>0.6218095193821256</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.1882256396246973</v>
+        <v>0.2228470413046466</v>
       </c>
       <c r="H22">
-        <v>0.004005559545099957</v>
+        <v>0.003895159777620449</v>
       </c>
       <c r="I22">
-        <v>0.002879347668777399</v>
+        <v>0.00318660826903816</v>
       </c>
       <c r="J22">
-        <v>0.2017999935048209</v>
+        <v>0.1739644568625409</v>
       </c>
       <c r="K22">
-        <v>0.1732115042082523</v>
+        <v>0.1512989874355064</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.08852274793883996</v>
       </c>
       <c r="M22">
-        <v>1.47181492176918</v>
+        <v>0.0380773160406207</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.008220803048893</v>
+        <v>1.482652391619723</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0.7706501534211583</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.011319853724181</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.6481089666582847</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.319998000954797</v>
+        <v>1.307902395357615</v>
       </c>
       <c r="C23">
-        <v>0.2264632662817547</v>
+        <v>0.2338567223188193</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.6036265776105409</v>
+        <v>0.6007129433565979</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.1884977928883345</v>
+        <v>0.2047267993902011</v>
       </c>
       <c r="H23">
-        <v>0.003417117986957763</v>
+        <v>0.003350055104468064</v>
       </c>
       <c r="I23">
-        <v>0.00242605665021145</v>
+        <v>0.002747295198520128</v>
       </c>
       <c r="J23">
-        <v>0.2036857029741128</v>
+        <v>0.1823267384884453</v>
       </c>
       <c r="K23">
-        <v>0.176379801834484</v>
+        <v>0.1565462800702608</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.09046940044432272</v>
       </c>
       <c r="M23">
-        <v>1.421135140019544</v>
+        <v>0.03910436876893542</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.9715339878171463</v>
+        <v>1.433211686605944</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0.7750761932208263</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.9749379131949425</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.6713475434363687</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.137734539713136</v>
+        <v>1.127858958795372</v>
       </c>
       <c r="C24">
-        <v>0.2023677763207417</v>
+        <v>0.2091000631376119</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.5226629616650271</v>
+        <v>0.520826898087158</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.188688065298841</v>
+        <v>0.1653021935720744</v>
       </c>
       <c r="H24">
-        <v>0.001576689245338159</v>
+        <v>0.001611238905603551</v>
       </c>
       <c r="I24">
-        <v>0.001475839753624975</v>
+        <v>0.001850329894118374</v>
       </c>
       <c r="J24">
-        <v>0.2104426946559457</v>
+        <v>0.2270154421370982</v>
       </c>
       <c r="K24">
-        <v>0.1878396798342497</v>
+        <v>0.1738644224390118</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.09803255074638173</v>
       </c>
       <c r="M24">
-        <v>1.231428049532184</v>
+        <v>0.04171879439915127</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.8333682878577378</v>
+        <v>1.245058839263379</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.789241387962349</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.8371496299011909</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.7366880996466563</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9404532457475341</v>
+        <v>0.9365032307276238</v>
       </c>
       <c r="C25">
-        <v>0.1767362653895219</v>
+        <v>0.1773382379823119</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.4355769454723628</v>
+        <v>0.4350163941370297</v>
       </c>
       <c r="F25">
         <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.1905790852375659</v>
+        <v>0.1667155415344368</v>
       </c>
       <c r="H25">
-        <v>0.0003454396172570817</v>
+        <v>0.0003877712234843234</v>
       </c>
       <c r="I25">
-        <v>0.001073175282924055</v>
+        <v>0.001345377090404831</v>
       </c>
       <c r="J25">
-        <v>0.2187772979914655</v>
+        <v>0.2388483422212353</v>
       </c>
       <c r="K25">
-        <v>0.2013912709952397</v>
+        <v>0.1882330887936483</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.105769263453217</v>
       </c>
       <c r="M25">
-        <v>1.026798395678128</v>
+        <v>0.04352696528696676</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.6847525264911241</v>
+        <v>1.036255063006166</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.810264733267033</v>
+        <v>0.6875599575842983</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.7688440654239201</v>
       </c>
     </row>
   </sheetData>
